--- a/data/locDocs/localisation.xlsx
+++ b/data/locDocs/localisation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,37 +483,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gangsta City</t>
+          <t>Lucky Mahjong</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>黑帮城市</t>
+          <t>幸运麻将</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>เมืองแก๊งสเตอร์</t>
+          <t>ลักกี้ mahjong</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kota Gangster</t>
+          <t>Lucky Mahjong</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>갱스터 시티</t>
+          <t>럭키 마작</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ギャングスタシティ</t>
+          <t>ラッキーマージャン</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Thành phố Gangsta</t>
+          <t>Mahjong May Mắn</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>ÂM THANH</t>
+          <t>Âm thanh</t>
         </is>
       </c>
     </row>
@@ -2808,12 +2808,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BET_SIZE</t>
+          <t>BET_AMOUNT</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Bet Size</t>
+          <t>BET AMOUNT</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2823,2881 +2823,2753 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ขนาดเดิมพัน</t>
+          <t>จำนวนเงินเดิมพัน</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ukuran Taruhan</t>
+          <t>JUMLAH TARUHAN</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>베팅 크기</t>
+          <t>베팅 금액</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>ベットサイズ</t>
+          <t>ベット額</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Kích thước cược</t>
+          <t>SỐ TIỀN CƯỢC</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BET_LEVEL</t>
+          <t>MAX_BET</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Bet Level</t>
+          <t>Max Bet</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>投注级别</t>
+          <t>最大投注</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ระดับเดิมพัน</t>
+          <t>เดิมพันสูงสุด</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Tingkat Taruhan</t>
+          <t>Taruhan Maks</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>베팅 레벨</t>
+          <t>맥시멈 베팅</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>ベットレベル</t>
+          <t>最大ベット</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Cấp độ cược</t>
+          <t>Cược Tối Đa</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BASE_BET</t>
+          <t>CONFIRM</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Base Bet</t>
+          <t>Confirm</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>基础赌注</t>
+          <t>确认</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>เดิมพันเริ่มต้น</t>
+          <t>ยืนยัน</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Taruhan Dasar</t>
+          <t>Konfirmasi</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>베팅</t>
+          <t>확인</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>ベット</t>
+          <t>確認</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Cược cơ bản</t>
+          <t>Xác nhận</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BET_AMOUNT</t>
+          <t>GAME_HISTORY</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BET AMOUNT</t>
+          <t>Game History</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>投注金额</t>
+          <t>游戏历史</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>จำนวนเงินเดิมพัน</t>
+          <t>ประวัติเกม</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>JUMLAH TARUHAN</t>
+          <t>Riwayat Permainan</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>베팅 금액</t>
+          <t>게임 기록</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>ベット額</t>
+          <t>ゲーム履歴</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>SỐ TIỀN CƯỢC</t>
+          <t>Lịch sử trò chơi</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MAX_BET</t>
+          <t>HISTORY_TIME</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Max Bet</t>
+          <t>Time\n{0}</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>最大投注</t>
+          <t>时间\n{0}</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>เดิมพันสูงสุด</t>
+          <t>เวลา\n{0}</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Taruhan Maks</t>
+          <t>Waktu\n{0}</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>맥시멈 베팅</t>
+          <t>시간\n{0}</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>最大ベット</t>
+          <t>時間\n{0}</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Cược Tối Đa</t>
+          <t>Thời gian\n{0}</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CONFIRM</t>
+          <t>TRANSACTION</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Confirm</t>
+          <t>Transaction</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>确认</t>
+          <t>交易</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ยืนยัน</t>
+          <t>ธุรกรรม</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Konfirmasi</t>
+          <t>Transaksi</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>확인</t>
+          <t>거래</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>確認</t>
+          <t>取引</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Xác nhận</t>
+          <t>Giao dịch</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>GAME_HISTORY</t>
+          <t>BET</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Game History</t>
+          <t>Bet</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>游戏历史</t>
+          <t>投注</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ประวัติเกม</t>
+          <t>เดิมพัน</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Riwayat Permainan</t>
+          <t>Taruhan</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>게임 기록</t>
+          <t>베팅</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>ゲーム履歴</t>
+          <t>ベット</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Lịch sử trò chơi</t>
+          <t>Cược</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HISTORY_TIME</t>
+          <t>PROFIT</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Time\n{0}</t>
+          <t>Profit</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>时间\n{0}</t>
+          <t>利润</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>เวลา\n{0}</t>
+          <t>กำไร</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Waktu\n{0}</t>
+          <t>Keuntungan</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>시간\n{0}</t>
+          <t>이익</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>時間\n{0}</t>
+          <t>利益</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Thời gian\n{0}</t>
+          <t>Lợi nhuận</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TRANSACTION</t>
+          <t>LOADING</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transaction</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>交易</t>
+          <t>加载中</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>ธุรกรรม</t>
+          <t>กำลังโหลด</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transaksi</t>
+          <t>Memuat</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>거래</t>
+          <t>로딩 중</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>取引</t>
+          <t>ロード中</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Giao dịch</t>
+          <t>Đang tải</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BET</t>
+          <t>TODAY</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Bet</t>
+          <t>Today</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>投注</t>
+          <t>今天</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>เดิมพัน</t>
+          <t>วันนี้</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Taruhan</t>
+          <t>Hari Ini</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>베팅</t>
+          <t>오늘</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>ベット</t>
+          <t>今日</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Cược</t>
+          <t>Hôm nay</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PROFIT</t>
+          <t>HISTORY_RECORD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Profit</t>
+          <t>{0} Records</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>利润</t>
+          <t>{0} 条记录</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>กำไร</t>
+          <t>{0} บันทึก</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Keuntungan</t>
+          <t>{0} Rekaman</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>이익</t>
+          <t>{0} 개의 기록</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>利益</t>
+          <t>{0} 件のレコード</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Lợi nhuận</t>
+          <t>{0} Bản ghi</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>LOADING</t>
+          <t>HISTORY_ROUND</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Loading</t>
+          <t>Round {0}</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>加载中</t>
+          <t>回合 {0}</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>กำลังโหลด</t>
+          <t>รอบ {0}</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Memuat</t>
+          <t>Putaran {0}</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>로딩 중</t>
+          <t>라운드 {0}</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>ロード中</t>
+          <t>ラウンド {0}</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Đang tải</t>
+          <t>Vòng {0}</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TODAY</t>
+          <t>SELECT_DATE_RANGE</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>Select Date Range</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>今天</t>
+          <t>选择日期范围</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>วันนี้</t>
+          <t>เลือกช่วงวันที่</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Hari Ini</t>
+          <t>Pilih Rentang Tanggal</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>오늘</t>
+          <t>날짜 범위 선택</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>今日</t>
+          <t>日付範囲を選択</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Hôm nay</t>
+          <t>Chọn khoảng thời gian</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HISTORY_RECORD</t>
+          <t>LAST_SEVEN_DAYS</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>{0} Records</t>
+          <t>Last 7 Days</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>{0} 条记录</t>
+          <t>最近 7 天</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{0} บันทึก</t>
+          <t>7 วันที่ผ่านมา</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>{0} Rekaman</t>
+          <t>7 hari terakhir</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>{0} 개의 기록</t>
+          <t>지난 7일</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>{0} 件のレコード</t>
+          <t>直近7日間</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>{0} Bản ghi</t>
+          <t>7 ngày vừa qua</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HISTORY_ROUND</t>
+          <t>CUSTOM</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Round {0}</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>回合 {0}</t>
+          <t>自定</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>รอบ {0}</t>
+          <t>ธรรมเนียม</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Putaran {0}</t>
+          <t>Buat sendiri</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>라운드 {0}</t>
+          <t>사용자 지정</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>ラウンド {0}</t>
+          <t>カスタム</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Vòng {0}</t>
+          <t>Tùy chỉnh</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SELECT_DATE_RANGE</t>
+          <t>HISTORY_START</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Select Date Range</t>
+          <t>Start</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>选择日期范围</t>
+          <t>开始</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>เลือกช่วงวันที่</t>
+          <t>เริ่ม</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Pilih Rentang Tanggal</t>
+          <t>Mulai</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>날짜 범위 선택</t>
+          <t>시작</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>日付範囲を選択</t>
+          <t>スタート</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Chọn khoảng thời gian</t>
+          <t>Bắt Đầu</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>LAST_SEVEN_DAYS</t>
+          <t>HISTORY_END</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Last 7 Days</t>
+          <t>End</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>最近 7 天</t>
+          <t>结束</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>7 วันที่ผ่านมา</t>
+          <t>จบ</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>7 hari terakhir</t>
+          <t>Berhenti</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>지난 7일</t>
+          <t>끝</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>直近7日間</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>7 ngày vừa qua</t>
+          <t>Kết thúc</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CUSTOM</t>
+          <t>PAYOUT</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Payout</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>自定</t>
+          <t>赔付</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ธรรมเนียม</t>
+          <t>การจ่ายเงิน</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Buat sendiri</t>
+          <t>Pembayaran</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>사용자 지정</t>
+          <t>배당금</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>カスタム</t>
+          <t>払い出し</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Tùy chỉnh</t>
+          <t>Thanh toán</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HISTORY_START</t>
+          <t>NORMAL_SPIN</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Start</t>
+          <t>Normal Spin</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>开始</t>
+          <t>普通旋转</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>เริ่ม</t>
+          <t>สปินปกติ</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Mulai</t>
+          <t>Putaran Normal</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>시작</t>
+          <t>일반 스핀</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>スタート</t>
+          <t>通常スピン</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Bắt Đầu</t>
+          <t>Quay bình thường</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HISTORY_END</t>
+          <t>NO_WINNING_COMBINATION</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>End</t>
+          <t>No winning combination</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>结束</t>
+          <t>没有中奖组合</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>จบ</t>
+          <t>ไม่มีชุดค่าผสมที่ชนะ</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Berhenti</t>
+          <t>Tidak Ada Kombinasi Menang</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>끝</t>
+          <t>당첨 조합 없음</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>当たりの組み合わせなし</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Kết thúc</t>
+          <t>Không Có Kết Hợp Thắng</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PAYOUT</t>
+          <t>EXPAND_AND_PAY</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Payout</t>
+          <t>expands and pay!</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>赔付</t>
+          <t>扩展并支付！</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>การจ่ายเงิน</t>
+          <t>ขยายและจ่าย!</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Pembayaran</t>
+          <t>Memperluas dan Membayar!</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>배당금</t>
+          <t>확장 및 지불!</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>払い出し</t>
+          <t>拡大して支払う！</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Thanh toán</t>
+          <t>Mở Rộng và Thanh Toán!</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NORMAL_SPIN</t>
+          <t>NUM_OF_WAYS</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Normal Spin</t>
+          <t>{0} ways</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>普通旋转</t>
+          <t>{0}条线路</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>สปินปกติ</t>
+          <t>{0} วิธี</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Putaran Normal</t>
+          <t>{0} jalur</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>일반 스핀</t>
+          <t>{0}개 방법</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>通常スピン</t>
+          <t>{0}ペイライン</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Quay bình thường</t>
+          <t>{0} Đường Cược</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>NO_WINNING_COMBINATION</t>
+          <t>3_OF_KIND</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>No winning combination</t>
+          <t>3 of a Kind</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>没有中奖组合</t>
+          <t>3个相同</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>ไม่มีชุดค่าผสมที่ชนะ</t>
+          <t>สัญลักษณ์เดียวกัน 3 สัญลักษณ์</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Tidak Ada Kombinasi Menang</t>
+          <t>3 simbol yang sama</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>당첨 조합 없음</t>
+          <t>3 오브 어 카인드</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>当たりの組み合わせなし</t>
+          <t>3目並べ</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Không Có Kết Hợp Thắng</t>
+          <t>3 biểu tượng giống hệt nhau</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>EXPAND_AND_PAY</t>
+          <t>4_OF_KIND</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>expands and pay!</t>
+          <t>4 of a Kind</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>扩展并支付！</t>
+          <t>4个相同</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>ขยายและจ่าย!</t>
+          <t>สัญลักษณ์เดียวกัน 4 สัญลักษณ์</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Memperluas dan Membayar!</t>
+          <t>4 simbol yang sama</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>확장 및 지불!</t>
+          <t>4 오브 어 카인드</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>拡大して支払う！</t>
+          <t>4目並べ</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Mở Rộng và Thanh Toán!</t>
+          <t>4 biểu tượng giống hệt nhau</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NUM_OF_WAYS</t>
+          <t>5_OF_KIND</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>{0} ways</t>
+          <t>5 of a Kind</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>{0}条线路</t>
+          <t>5个相同</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{0} วิธี</t>
+          <t>สัญลักษณ์เดียวกัน 5 สัญลักษณ์</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>{0} jalur</t>
+          <t>5 simbol yang sama</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>{0}개 방법</t>
+          <t>5 오브 어 카인드</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>{0}ペイライン</t>
+          <t>5目並べ</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>{0} Đường Cược</t>
+          <t>5 biểu tượng giống hệt nhau</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3_OF_KIND</t>
+          <t>AUTO_SPIN</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>3 of a Kind</t>
+          <t>AUTO SPIN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>3个相同</t>
+          <t>自动旋转</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>สัญลักษณ์เดียวกัน 3 สัญลักษณ์</t>
+          <t>หมุนอัตโนมัติ</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3 simbol yang sama</t>
+          <t>PUTAR OTOMATIS</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>3 오브 어 카인드</t>
+          <t>자동 회전</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>3目並べ</t>
+          <t>オートスピン</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>3 biểu tượng giống hệt nhau</t>
+          <t>TỰ ĐỘNG QUAY</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>4_OF_KIND</t>
+          <t>AUTO_SPIN_NUM</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>4 of a Kind</t>
+          <t>Number of Auto Spins</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>4个相同</t>
+          <t>自动旋转次数</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>สัญลักษณ์เดียวกัน 4 สัญลักษณ์</t>
+          <t>จำนวนหมุนอัตโนมัติ</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4 simbol yang sama</t>
+          <t>Jumlah Putaran Otomatis</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>4 오브 어 카인드</t>
+          <t>자동 스핀의 횟수</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>4目並べ</t>
+          <t>オートスピン回数</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>4 biểu tượng giống hệt nhau</t>
+          <t>Số Vòng tự quay</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>5_OF_KIND</t>
+          <t>AUTO_SPIN_START</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>5 of a Kind</t>
+          <t>Start Auto Spin</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>5个相同</t>
+          <t>开始自动旋转</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>สัญลักษณ์เดียวกัน 5 สัญลักษณ์</t>
+          <t>เริ่มหมุนอัตโนมัติ</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>5 simbol yang sama</t>
+          <t>Mulai Putaran Otomatis</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>5 오브 어 카인드</t>
+          <t>자동 스핀 시작</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>5目並べ</t>
+          <t>オートスピン開始</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>5 biểu tượng giống hệt nhau</t>
+          <t>Bắt đầu Quay tự động</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>AUTO_SPIN</t>
+          <t>GRAND</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>AUTO SPIN</t>
+          <t>GRAND</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>自动旋转</t>
+          <t>GRAND</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>หมุนอัตโนมัติ</t>
+          <t>GRAND</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>PUTAR OTOMATIS</t>
+          <t>GRAND</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>자동 회전</t>
+          <t>GRAND</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>オートスピン</t>
+          <t>GRAND</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>TỰ ĐỘNG QUAY</t>
+          <t>GRAND</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>AUTO_SPIN_NUM</t>
+          <t>MAJOR</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Number of Auto Spins</t>
+          <t>MAJOR</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>自动旋转次数</t>
+          <t>MAJOR</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>จำนวนหมุนอัตโนมัติ</t>
+          <t>MAJOR</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Jumlah Putaran Otomatis</t>
+          <t>MAJOR</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>자동 스핀의 횟수</t>
+          <t>MAJOR</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>オートスピン回数</t>
+          <t>MAJOR</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Số Vòng tự quay</t>
+          <t>MAJOR</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>AUTO_SPIN_START</t>
+          <t>MINOR</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Start Auto Spin</t>
+          <t>MINOR</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>开始自动旋转</t>
+          <t>MINOR</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>เริ่มหมุนอัตโนมัติ</t>
+          <t>MINOR</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Mulai Putaran Otomatis</t>
+          <t>MINOR</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>자동 스핀 시작</t>
+          <t>MINOR</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>オートスピン開始</t>
+          <t>MINOR</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Bắt đầu Quay tự động</t>
+          <t>MINOR</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>GRAND</t>
+          <t>MINI</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GRAND</t>
+          <t>MINI</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>GRAND</t>
+          <t>MINI</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>GRAND</t>
+          <t>MINI</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>GRAND</t>
+          <t>MINI</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>GRAND</t>
+          <t>MINI</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>GRAND</t>
+          <t>MINI</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>GRAND</t>
+          <t>MINI</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MAJOR</t>
+          <t>FREE_SPIN</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MAJOR</t>
+          <t>FREE SPINS</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>MAJOR</t>
+          <t>免费旋转</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>MAJOR</t>
+          <t>ฟรีสปิน</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MAJOR</t>
+          <t>Putaran Gratis</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>MAJOR</t>
+          <t>무료 스핀</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>MAJOR</t>
+          <t>フリースピン</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>MAJOR</t>
+          <t>Quay miễn phí</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MINOR</t>
+          <t>JACKPOT</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MINOR</t>
+          <t>JACKPOT</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MINOR</t>
+          <t>头奖</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>MINOR</t>
+          <t>แจ็คพอต</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MINOR</t>
+          <t>Jackpot</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>MINOR</t>
+          <t>공동 자금</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>MINOR</t>
+          <t>ジャックポット</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>MINOR</t>
+          <t>Giải độc đắc</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MINI</t>
+          <t>Cap_win</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MINI</t>
+          <t>You have reached the Maximum Win Limit</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>MINI</t>
+          <t>你已达到最大获胜限额</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>MINI</t>
+          <t>คุณถึงขีดจำกัดของการชนะ</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MINI</t>
+          <t>Anda telah mencapai Batas Kemenangan maksimal</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>MINI</t>
+          <t>귀하는 최대 승리 한도에 도달했습니다</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>MINI</t>
+          <t>最大勝利レベルに達した</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>MINI</t>
+          <t>Bạn đã đạt đến Giới hạn thắng tối đa</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>FREE_SPIN</t>
+          <t>BlackOutPay</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FREE SPINS</t>
+          <t>Blackout Bonus</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>免费旋转</t>
+          <t>全屏奖金</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ฟรีสปิน</t>
+          <t>Blackout Bonus</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Putaran Gratis</t>
+          <t>Bonus Blackout</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>무료 스핀</t>
+          <t>블랙아웃 보너스</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>フリースピン</t>
+          <t>ブラックアウト・ボーナス</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Quay miễn phí</t>
+          <t>Bonus Bao Phủ Toàn Màn Hình</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>JACKPOT</t>
+          <t>info_bar_goodluck</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>JACKPOT</t>
+          <t>Good Luck!</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>头奖</t>
+          <t>祝你好运！</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>แจ็คพอต</t>
+          <t>โชคดี!</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Jackpot</t>
+          <t>Semoga beruntung!</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>공동 자금</t>
+          <t>행운을 빕니다!</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>ジャックポット</t>
+          <t>幸運を！</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Giải độc đắc</t>
+          <t>Chúc may mắn!</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Cap_win</t>
+          <t>Bonus_Win</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>You have reached the Maximum Win Limit</t>
+          <t>Bonus Win</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>你已达到最大获胜限额</t>
+          <t xml:space="preserve">奖金赢取 </t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>คุณถึงขีดจำกัดของการชนะ</t>
+          <t xml:space="preserve">ชนะโบนัส </t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Anda telah mencapai Batas Kemenangan maksimal</t>
+          <t xml:space="preserve">Bonus Menang </t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>귀하는 최대 승리 한도에 도달했습니다</t>
+          <t xml:space="preserve">보너스 승리 </t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>最大勝利レベルに達した</t>
+          <t xml:space="preserve">ボーナス勝利 </t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Bạn đã đạt đến Giới hạn thắng tối đa</t>
+          <t xml:space="preserve">Thắng thưởng </t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>BlackOutPay</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Blackout Bonus</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>全屏奖金</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Blackout Bonus</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Bonus Blackout</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>블랙아웃 보너스</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>ブラックアウト・ボーナス</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Bonus Bao Phủ Toàn Màn Hình</t>
-        </is>
-      </c>
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>info_bar_goodluck</t>
+          <t>SYMBOL_PAYOUT_VALUE</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Good Luck!</t>
+          <t>SYMBOL PAYOUT VALUE</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>祝你好运！</t>
+          <t>符号赔付值</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>โชคดี!</t>
+          <t>ค่าการจ่ายรางวัลของสัญลักษณ์</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Semoga beruntung!</t>
+          <t>Nilai Simbol Bayaran</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>행운을 빕니다!</t>
+          <t>심볼 지급액 값</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>幸運を！</t>
+          <t>シンボル払い戻し値</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Chúc may mắn!</t>
+          <t>Giá trị trả thưởng cho các biểu tượng</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Bonus_Win</t>
+          <t>PAYTABLE_WILD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Bonus Win</t>
+          <t>Wild symbol substitutes for all symbols except Scatter symbol. Wild symbols appear on reels 2, 3, and 4 only.</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve">奖金赢取 </t>
+          <t>百搭符号替代除分散符号外的所有符号。百搭符号仅出现在卷轴2、3和4上。</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve">ชนะโบนัส </t>
+          <t>สัญลักษณ์ Wild แทนที่สัญลักษณ์ทั้งหมดยกเว้นสัญลักษณ์ Scatter สัญลักษณ์ Wild จะปรากฏบนรีล 2, 3 และ 4 เท่านั้น</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bonus Menang </t>
+          <t>Simbol Wild menggantikan semua simbol kecuali simbol Scatter. Simbol Wild hanya muncul pada gulungan 2, 3, dan 4.</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve">보너스 승리 </t>
+          <t>와일드 심볼은 스캐터 심볼을 제외한 모든 심볼을 대체합니다. 와일드 심볼은 2, 3, 4번 릴에만 나타납니다.</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t xml:space="preserve">ボーナス勝利 </t>
+          <t>ワイルドシンボルはスキャッターシンボルを除くすべてのシンボルに代わります。ワイルドシンボルはリール2、3、4にのみ表示されます。</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thắng thưởng </t>
+          <t>Biểu tượng Wild thay thế cho tất cả các biểu tượng ngoại trừ biểu tượng Scatter. Biểu tượng Wild chỉ xuất hiện trên cuộn 2, 3 và 4.</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr"/>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>PAYTABLE_SCATTER</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>3 or more scatter symbols appearing anywhere on the reels will trigger the Free Spins feature.</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>卷轴上任意位置出现3个或更多分散符号将触发免费旋转功能。</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>สัญลักษณ์ Scatter 3 ตัวขึ้นไปที่ปรากฏบนรีลจะทำให้เกิดฟีเจอร์ฟรีสปิน</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>3 atau lebih simbol Scatter yang muncul di mana saja pada gulungan akan memicu fitur Free Spins.</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>릴 어디에서나 3개 이상의 스캐터 심볼이 나타나면 무료 스핀 기능이 발동됩니다.</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>リール上のどこかに3つ以上のスキャッターシンボルが出現すると、フリースピン機能が発動します。</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>3 hoặc nhiều biểu tượng Scatter xuất hiện ở bất kỳ đâu trên cuộn sẽ kích hoạt tính năng Free Spins.</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SYMBOL_PAYOUT_VALUE</t>
+          <t>PAYTABLE_SCATTER2</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SYMBOL PAYOUT VALUE</t>
+          <t>Gold Plated symbols appear on reels 2, 3, and 4 only.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>符号赔付值</t>
+          <t>镀金符号仅出现在卷轴2、3和4上。</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ค่าการจ่ายรางวัลของสัญลักษณ์</t>
+          <t>สัญลักษณ์ Gold Plated จะปรากฏบนรีล 2, 3 และ 4 เท่านั้น</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Nilai Simbol Bayaran</t>
+          <t>Simbol Gold Plated hanya muncul pada gulungan 2, 3, dan 4.</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>심볼 지급액 값</t>
+          <t>골드 플레이트 심볼은 2, 3, 4번 릴에만 나타납니다.</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>シンボル払い戻し値</t>
+          <t>ゴールドプレートシンボルはリール2、3、4にのみ表示されます。</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Giá trị trả thưởng cho các biểu tượng</t>
+          <t>Biểu tượng Gold Plated chỉ xuất hiện trên cuộn 2, 3 và 4.</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>PAYTABLE_SPECIAL_MYSTERY_STACK</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Mystery Stack Symbols appearing on the reels will be replaced with one of the same symbols, except Wild Symbol and Bonus Symbol.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>出现在卷轴上的Mystery Stack符号将被替换为除Wild符号和Bonus符号以外的相同符号之一。</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>สัญลักษณ์ Mystery Stack ที่ปรากฏบนวงล้อจะถูกแทนที่ด้วยสัญลักษณ์เดียวกัน ยกเว้นสัญลักษณ์ Wild และสัญลักษณ์ Bonus</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Simbol Mystery Stack yang muncul di gulungan akan diganti dengan salah satu simbol yang sama, kecuali simbol Wild dan simbol Bonus.</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>릴에 나타나는 Mystery Stack 심볼은 WIld 심볼 및 보너스 심볼을 제외하고 동일한 심볼 중 하나로 교체됩니다.</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>リール上に出現したミステリー・スタックシンボルは、ワイルド・シンボルとボーナス・シンボルを除き、同じシンボルのいずれかと入れ替わります。</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Biểu Tượng Mystery Stack xuất hiện trên cột quay sẽ được thay thế bằng một trong các biểu tượng giống nhau, ngoại trừ Biểu Tượng Wild và Biểu Tượng Bonus.</t>
-        </is>
-      </c>
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>PAYTABLE_STACK_WILD_1</t>
+          <t>FREE_SPINS_FEATURE</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>The Full Stack Wild Symbol can substitute for all symbols except Bonus symbol.</t>
+          <t>FREE SPINS FEATURE</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Full Stack Wild符号可以替代除Bonus符号之外的所有符号。</t>
+          <t>免费旋转功能</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>สัญลักษณ์ Full Stack Wild สามารถใช้แทนได้ทุกสัญลักษณ์ ยกเว้นสัญลักษณ์ Bonus</t>
+          <t>ฟีเจอร์ FREE SPINS</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Simbol Full Stack Wild dapat menggantikan simbol apa pun, kecuali simbol Bonus</t>
+          <t>Fitur Putaran Gratis</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Full Stack Wild 심볼은 보너스 심볼을 제외한 모든 심볼을 대체할 수 있습니다.</t>
+          <t>무료 스핀 기능</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>フル・スタック・ワイルド・シンボルは、ボーナス・シンボル以外の全てのシンボルの代わりとなります。</t>
+          <t>フリースピン機能</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Biểu Tượng Full Stack Wild có thể thay thế cho tất cả các biểu tượng ngoại trừ biểu tượng Bonus.</t>
+          <t>Tính năng Vòng Quay Miễn Phí</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>PAYTABLE_STACK_WILD_2</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>It is available only on 3rd Reel and it can trigger the Jackpot feature at random.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>它仅出现3号卷轴上，并且可以随机触发头奖功能。</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>มีเฉพาะบนรีลที่ 3 เท่านั้นและสามารถเรียกใช้งานฟีเจอร์ Jackpot ได้โดยการสุ่ม</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Ini hanya tersedia di gulungan 3 dan dapat memicu fitur Jackpot secara acak.</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>3번째 릴에서만 사용할 수 있으며 잭팟 기능을 랜덤으로 트리거할 수 있습니다.</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>第3リールでのみ使用可能で、ランダムにジャックポット・フィーチャーをトリガーすることができる。</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Biểu tượng này chỉ có trên Cột Quay 3 và có thể kích hoạt ngẫu nhiên tính năng Jackpot.</t>
-        </is>
-      </c>
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>PAYTABLE_SPECIAL_SCATTER_1</t>
+          <t>PAYTABLE_SYMBOL_INFO_1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>3 Bonus Symbols on reels 2,3 and 4 awards 8 Free Spins Feature.</t>
+          <t>Wild symbol substitutes for all symbols except Scatter symbol.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>在2、3和4号卷轴上出现3个Bonus符号，将奖励8次免费旋转功能。</t>
+          <t>Wild符号可替代除Scatter符号以外的所有符号。</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>สัญลักษณ์ Bonus 3 สัญลักษณ์บนรีลที่ 2,3 และ 4 จะให้รางวัลฟีเจอร์ Free Spins 8 ครั้ง</t>
+          <t>สัญลักษณ์ Wild แทนได้ทุกสัญลักษณ์ ยกเว้นสัญลักษณ์ Scatter</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Tiga Simbol Bonus pada gulungan 2,3 dan 4 akan menghadiahkan 8 Fitur Putaran Gratis.</t>
+          <t>Simbol Wild menggantikan semua simbol kecuali simbol Scatter.</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>릴 2,3, 4에 3개의 보너스 심볼이 있고 8개의 무료 스핀 기능이 있습니다.</t>
+          <t>Wild 심벌은 Scatter 심벌을 제외한 모든 심벌을 대체합니다.</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>リール2,3,4に3つのボーナス・シンボルが揃うと、8回のフリー・スピン・フィーチャーが楽しめます。</t>
+          <t>WildシンボルはScatterシンボルを除く、すべてのシンボルの代わりとなります。</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>3 Biểu Tượng Bonus trên các cột quay 2,3 và 4 sẽ mang lại 8 Vòng Quay Miễn Phí.</t>
+          <t>Biểu tượng Wild có thể thay thế cho tất cả các biểu tượng khác trừ biểu tượng Scatter.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>PAYTABLE_SPECIAL_SCATTER_2</t>
+          <t>PAYTABLE_SYMBOL_INFO_2</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>One or more Bonus Symbol in a winning combination is wild and substitutes for all symbols except wild, 2X Wild and 3X Wild symbols.</t>
+          <t>Wild symbols appear on reels 2, 3, and 4 only.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>在中奖组合中，一个或多个Bonus符号都是Wild符号，可以替代除Wild、2XWild和3XWild符号之外的所有符号。</t>
+          <t>Wild符号仅出现在第2、第3和第4个卷轴上。</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>สัญลักษณ์ Bonus ตั้งแต่หนึ่งสัญลักษณ์ขึ้นไปในชุดค่าผสมที่ชนะคือสัญลักษณ์ Wild และใช้แทนทุกสัญลักษณ์ ยกเว้นสัญลักษณ์ Wild, Wild 2X และ Wild 3X</t>
+          <t>สัญลักษณ์ Wild จะปรากฏขึ้นบนวงล้อ 2, 3 และ 4 เท่านั้น</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Satu simbol Bonus atau lebih dalam kombinasi pemenang adalah simbol Wild dan menggantikan semua simbol, kecuali simbol Wild, Wild 2X, dan Wild 3X.</t>
+          <t>Simbol Wild hanya muncul pada kumparan 2, 3, dan 4.</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>당첨 조합에서 하나 이상의 보너스 심볼은 Wild이며 Wild, 2배의 WIld, 3배의 Wild 심볼을 제외한 모든 심볼을 대체합니다.</t>
+          <t>Wild 심벌은 릴 2, 3, 및 4에만 나타납니다.</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>ウイニング・コンビネーション中の1つ以上のボーナス・シンボルはワイルドとなり、ワイルド、2Xワイルド、3Xワイルド以外の全てのシンボルに代わります。</t>
+          <t>Wild シンボルは2番、3番、4番リールのみに出現します。</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Một hoặc nhiều Biểu Tượng Bonus trong combo thắng cược là Wild và thay thế tất cả biểu tượng Wild, Wild  2X và Wild 3X.</t>
+          <t>Biểu tượng Wild chỉ xuất hiện ở cuộn 2, 3 và 4.</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr"/>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>PAYTABLE_SYMBOL_INFO_3</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Gold Plated symbols appear on reels 2, 3, and 4 only.</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>镀金符号仅出现在第2、第3和第4个卷轴上。</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>สัญลักษณ์ชุบทองจะปรากฏบนวงล้อ 2, 3 และ 4 เท่านั้น</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Simbol Berlapis Emas hanya muncul pada kumparan 2, 3, dan 4.</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>도금 심벌은 릴 2, 3, 그리고 4 위에만 나타납니다.</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>金色のシンボルは2番、3番、4番リールのみに出現します。</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Biểu Tượng Mạ Vàng chỉ xuất hiện ở cuộn thứ 2, 3, và 4.</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>FREE_SPINS_FEATURE</t>
+          <t>1125_WAYS</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FREE SPINS FEATURE</t>
+          <t>1125 WAYS</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>免费旋转功能</t>
+          <t>1125条线路</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ฟีเจอร์ FREE SPINS</t>
+          <t>1125 วิธี</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Fitur Putaran Gratis</t>
+          <t>1125 jalur</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>무료 스핀 기능</t>
+          <t>1125개 방법</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>フリースピン機能</t>
+          <t>1125ペイライン</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Tính năng Vòng Quay Miễn Phí</t>
+          <t>1125 Đường Cược</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr"/>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>PAYTABLE_WAYS_1</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Total number of winning bet ways for each symbol are calculated by multiplying the number of adjacent winning symbols on each symbol from leftmost reel to right.</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>每个符号的中奖投注路线总数的计算方式为：将从最左侧卷轴起到右侧的每个符号的相邻中奖符号数量相乘。</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>จำนวนทั้งหมดของวิธีเดิมพันที่ชนะสำหรับแต่ละสัญลักษณ์จะคำนวณโดยการคูณจำนวนสัญลักษณ์ที่ชนะที่อยู่ติดกันกับในแต่ละสัญลักษณ์วงล้อซ้ายสุดไปทางขวา</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Total jumlah kemenangan jalur taruhan untuk setiap simbol dihitung dengan mengalikan jumlah simbol kemenangan yang berdekatan pada setiap simbol dari kumparan paling kiri ke kanan.</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>각 심벌에 대한 적중 베팅 방법의 총 숫자는 가장 왼쪽 릴에서 오른쪽으로 각 심벌에 인접한 적중 심벌 수를 곱하여 계산됩니다.</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>ペイラインの当選役の合計数は、隣接する当選シンボルの数を左端から右に向かって掛け合わせて算出します。</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Số lượng đường thắng cược của mỗi biểu tượng được tính bằng cách nhân số lượng của biểu tượng chiến thắng đó trên mỗi cuộn liền kề từ trái qua phải với nhau.</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>GAME_RULES</t>
+          <t>PAYTABLE_WAYS_2</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>GAME RULES</t>
+          <t>From Above Example:\n1 * 3 * 2 = 6"</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>游戏规则</t>
+          <t>参考以上例子:\n1 * 3 * 2 = 6</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>กฎของเกม</t>
+          <t>จากตัวอย่างด้านบน:\n1 * 3 * 2 = 6</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ATURAN PERMAINAN</t>
+          <t>Dari Contoh di atas:\n1 * 3 * 2 = 6</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>게임 규칙</t>
+          <t>위의 예제에서:\n1 * 3 * 2 = 6</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>ゲームルール</t>
+          <t>上の例から:\n1 * 3 * 2 = 6</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>QUY TẮC TRÒ CHƠI</t>
+          <t>Từ ví dụ trên:\n1 * 3 * 2 = 6</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>RULE_DESC_1</t>
+          <t>PAYTABLE_WAYS_3</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>“Gangsta City” is a 5-reel, 3-row video slot featuring Wild Reel, Free Spins, and Mystery Jackpot Feature.</t>
+          <t>The winning symbol payout is multiplied by the number of winning bet ways.</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>黑帮城市 是一款 5 轴、3 行的视频老虎机，带有 Wild 转轴派对、免费旋转和 神秘头奖特征。</t>
+          <t>中奖符号的彩金乘以中奖投注线路的数量。</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>เมืองแก๊งสเตอร์คือสล็อตวิดีโอ 5 วงล้อ 3 แถวที่มีวงล้อ Wild งานสังสรรค์ ฟรีสปิน และฟีเจอร์แจ็คพอตลึกลับ</t>
+          <t>การจ่ายเงินรางวัลสัญลักษณ์ที่ชนะจะคูณด้วยจำนวนของวิธีเดิมพันที่ชนะ</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Kota Gangster adalah sebuah video slot 5 gulungan, 3 baris yang berfitur Pesta Wild Reel, Putaran Gratis, dan Fitur Mystery Jackpot.</t>
+          <t>Pembayaran simbol kemenangan dikalikan dengan jumlah jalur taruhan yang menang.</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>"갱스터 시티"은 파티와일드 릴, 자유 회전 및 미스터리 잭팟 기능을 갖춘 5릴, 3열 비디오 슬롯입니다.</t>
+          <t>적중 심벌 상금은 승리 베팅 방법의 숫자로 곱해집니다.</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>ギャングスタシティは、Wild リール パーティー、フリー スピン、ミステリー ジャックポット機能を備えた 5 リール、3 列のビデオ スロットです。</t>
+          <t>配当は、当選ペイラインの数を乗算して払い出されます。</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Thành phố Gangsta là một trò chơi quay số trúng thưởng (video slot) với 5 cuộn, 3 hàng tích hợp các tính năng Bữa Tiệc Cuộn Wild, Vòng Quay Miễn Phí và tính năng Giải Độc Đắc Bí Ẩn.</t>
+          <t>Giá trị trả thưởng của một biểu tượng được nhân với số đường thắng cược của biểu tượng đó.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>RULE_DESC_2</t>
+          <t>PAYTABLE_WAYS_4</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>The game is played with 20 Base Bet, bet levels of 1 to 10.</t>
+          <t>Total winnings in this example:\n6 * 10 = 60</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>游戏底注为20，投注等级分为1到10级。</t>
+          <t>本例中的总赢奖:\n6 * 10 = 60</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>เกมดังกล่าวมีเดิมพันพื้นฐาน 20 รายการและระดับเดิมพันตั้งแต่ 1 ถึง 10</t>
+          <t>การชนะรางวัลรวมในด้วอย่างนี้:"\n6 * 10 = 60</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Game ini memiliki 20 Taruhan Awal dan level taruhan dari 1 sampai 10.</t>
+          <t>Total Kemenangan di Contoh ini:\n6 * 10 = 60</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>이 게임에는 20개의 기본 베팅과 1에서 10까지의 베팅 레벨이 있습니다.</t>
+          <t>이 예제에서 총 상금:\n6 * 10 = 60</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>このゲームには20のベース・ベットと1から10までのベット・レベルがあります。</t>
+          <t>この例の賞金合計:\n6 * 10 = 60</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Game có Tiền Cược Cơ Bản là 20 và các mức cược từ 1 đến 10.</t>
+          <t>Tổng giá trị trả thưởng của ví dụ này:\n6 * 10 = 60</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>RULE_DESC_3</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Use selectors to set the Bet Amount.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>使用选择器设置投注大小、等级和金额。</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>ใช้ตัวเลือกเพื่อกำหนดขนาดเดิมพัน ระดับเดิมพัน และจำนวนเดิมพัน</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Gunakan opsi untuk mengatur Ukuran Taruhan, Level Taruhan, dan Jumlah Taruhan.</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>셀렉터를 사용하여 베팅 사이즈, 베팅 레벨 및 베팅 금액을 설정합니다.</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>ベット・サイズ、ベット・レベル、ベット金額をセレクターを使って設定します。</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Sử dụng các bộ chọn để đặt Kích Thước Cược, Cấp Độ Cược và Số Tiền Cược.</t>
-        </is>
-      </c>
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>RULE_DESC_4</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>“Cash Wallet” displays the cash available for wager.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>“现金钱包”显示的是可用于下注的资金。</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>"กระเป๋าเงินสด" แสดงเงินสดที่ใช้ได้สำหรับการเดิมพัน</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>"Saldo Tunai" menampilkan uang tunai yang tersedia untuk taruhan.</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>현금 지갑은 베팅에 사용할 수 있는 현금을 표시합니다.</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>"キャッシュ・ウォーレット "は、賭けに可能な現金を表示します。</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>"Ví Tiền Mặt" hiển thị số tiền mặt sẵn có để đặt cược.</t>
-        </is>
-      </c>
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>RULE_DESC_5</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>“Auto Spin” automatically plays the game for a selected number of rounds.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>“自动旋转”将根据所选的回合数，自动开始游戏。</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>"หมุนอัติโนมัติ" จะเล่นเกมโดยอัตโนมัติตามจำนวนรอบที่เลือกไว้</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>"Putaran Otomatis" secara otomatis memainkan game untuk jumlah putaran yang dipilih.</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>자동 스핀은 선택한 라운드 수만큼 자동으로 게임을 플레이합니다.</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>“オート・スピン "は、選択したラウンド数だけ自動的にゲームをプレイします。</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>"Tự Động Quay" tự động chơi game theo số vòng đã chọn.</t>
-        </is>
-      </c>
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>RULE_DESC_6</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Winning combinations and payouts are made according to the “Paytable”.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>参看赔率表，了解获胜组合和赔付信息。</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>คอมโบที่ชนะและการจ่ายเงินจะเป็นไปตามตารางการจ่ายเงิน</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Jumlah kemenangan dan pembayaran mengikuti Paytable.</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>당첨 콤보와 페이아웃은 지급 표를 따릅니다.</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>勝利のコンボと配当はペイ・テーブルのやり方に従って行われます。</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Combo thắng cược và tiền thưởng tuân theo Bảng Thanh Toán.</t>
-        </is>
-      </c>
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>RULE_DESC_7</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Payouts are dynamically reflected based on the selected bet.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>根据所选的投注，实时反映赔付金额。</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>จะมีการแสดงการจ่ายเงินแบบไดนามิกตามเดิมพันที่เลือกไว้</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Pembayaran dinamis akan ditampilkan berdasarkan taruhan yang dipilih.</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>페이아웃은 선택한 베팅에 따라 동적으로 반영됩니다.</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>ペイ・アウトは、選択したベットに応じてダイナミックに反映されます。</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Tiền cược được phản ánh tự động dựa vào mức cược đã chọn.</t>
-        </is>
-      </c>
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>RULE_DESC_8</t>
+          <t>GAME_RULES</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Bet lines win if the winning symbols are in succession from the leftmost reel to right.</t>
+          <t>GAME RULES</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>从最左至右，连续出现符号，投注线即为获胜。</t>
+          <t>游戏规则</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ไลน์เดิมพันจะชนะด้วยสัญลักษณ์ต่อเนื่องจากซ้ายสุดไปขวาสุด</t>
+          <t>กฎของเกม</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Baris taruhan menang dengan simbol beruntun dari sisi paling kiri ke kanan.</t>
+          <t>ATURAN PERMAINAN</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>가장 왼쪽에서 오른쪽으로 심볼이 연속적으로 표시되면 베팅 라인이 당첨됩니다.</t>
+          <t>게임 규칙</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>左端から右端まで立て続けにシンボルがあったら、ベット・ラインの勝利です。</t>
+          <t>ゲームルール</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Hàng đặt cược sẽ thắng khi các biểu tượng xuất hiện liên tiếp từ ngoài cùng bên trái sang bên phải.</t>
+          <t>QUY TẮC TRÒ CHƠI</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>RULE_DESC_9</t>
+          <t>RULE_DESC_1</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Only the highest win is paid per winning combination on the same pay line.</t>
+          <t>Lucky Mahjong is a 5-reel, 3-row (with two additional rows for each of reels 2, 3, and 4) video slot featuring Wild symbol transformation and increasing multiplier.</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>同一条赔付线上，每个获胜组合只支付最高的奖金。</t>
+          <t>幸运麻将是一款5卷轴、3行（卷轴2、3和4各有两行附加行）的视频老虎机，具有百搭符号转换和增加倍率功能。</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>จะมีการจ่ายให้เฉพาะชัยชนะสูงสุดต่อชุดค่าผสมที่ชนะในเพย์ไลน์เดียวกันเท่านั้น</t>
+          <t>ลักกี้ Mahjong เป็นสล็อตวิดีโอ 5 รีล 3 แถว (พร้อมสองแถวเพิ่มเติมสำหรับแต่ละรีล 2, 3 และ 4) ที่มีการแปลงสัญลักษณ์ Wild และตัวคูณที่เพิ่มขึ้น</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Hanya kemenangan tertinggi per kombinasi kemenangan pada pay line yang sama yang dibayarkan.</t>
+          <t>Lucky Mahjong adalah slot video 5 gulungan, 3 baris (dengan dua baris tambahan untuk setiap gulungan 2, 3, dan 4) yang menampilkan transformasi simbol Wild dan pengali yang meningkat.</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>동일한 페이 라인에서 당첨된 조합당 가장 높은 당첨금만 지급됩니다.</t>
+          <t>럭키 마작은 5릴, 3열(릴 2, 3, 4에 각각 두 개의 추가 열이 있음)의 비디오 슬롯으로, 와일드 심볼 변환 및 증가하는 배수를 특징으로 합니다.</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>同じペイライン上の勝利のコンビネーションごとに、最も高い勝利のみが支払われます。</t>
+          <t>ラッキーマージャンは、5リール、3行（リール2、3、4にはそれぞれ2つの追加行があります）のビデオスロットで、ワイルドシンボルの変身と増加する乗数を特徴としています。</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Chỉ trả số tiền thắng cược cao nhất cho mỗi combo thắng cược trên cùng một hàng thanh toán.</t>
+          <t>Mahjong May Mắn là một trò chơi video slot 5 cuộn, 3 hàng (với hai hàng bổ sung cho mỗi cuộn 2, 3 và 4) có tính năng biến đổi biểu tượng Wild và hệ số nhân tăng dần.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>RULE_DESC_10</t>
+          <t>RULE_DESC_2</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Simultaneous wins on different bet lines are added. </t>
+          <t>The game is played with 20 base bet for 1125 ways (fixed),</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>不同投注线同时赢奖，奖励将叠加。</t>
+          <t>游戏以20基础赌注进行，有1125种支付方式（固定）。</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>จะมีการเพิ่มชัยชนะที่เกิดขึ้นพร้อมกันไปยังไลน์เดิมพันต่างกัน</t>
+          <t>เกมนี้เล่นด้วยเงินเดิมพันพื้นฐาน 20 สำหรับ 1125 วิธี (คงที่)</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Kemenangan serentak ditambahkan ke garis taruhan yang berbeda.</t>
+          <t>Permainan dimainkan dengan taruhan dasar 20 untuk 1125 cara (tetap).</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>다양한 베팅 라인에서 동시에 당첨된 당첨금이 추가됩니다.</t>
+          <t>게임은 20 기본 베팅으로 1125가지 방법(고정)으로 진행됩니다.</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>異なるベット・ラインでの同時の勝利の場合は追加されます。</t>
+          <t>ゲームは20のベースベットで1125の方法（固定）でプレイされます。</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Tiền thưởng sẽ được cộng dồn khi thắng cược đồng thời trên các hàng đặt cược khác nhau.</t>
+          <t>Trò chơi được chơi với cược cơ bản 20 cho 1125 cách (cố định).</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>RULE_DESC_11</t>
+          <t>RULE_DESC_3</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>All wins are shown in cash.</t>
+          <t>Use selectors to set the Bet Amount.</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>所有奖金以现金表示。</t>
+          <t>使用选择器设置投注大小、等级和金额。</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>ชัยชนะทั้งหมดจะแสดงอยู่ในรูปของเงินสด</t>
+          <t>ใช้ตัวเลือกเพื่อกำหนดขนาดเดิมพัน ระดับเดิมพัน และจำนวนเดิมพัน</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Kemenangan akan ditampilkan dalam bentuk uang tunai.</t>
+          <t>Gunakan opsi untuk mengatur Ukuran Taruhan, Level Taruhan, dan Jumlah Taruhan.</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>모든 당첨금은 현금으로 표시됩니다.</t>
+          <t>셀렉터를 사용하여 베팅 사이즈, 베팅 레벨 및 베팅 금액을 설정합니다.</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>すべての勝利は現金で表示されます。</t>
+          <t>ベット・サイズ、ベット・レベル、ベット金額をセレクターを使って設定します。</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Tất cả số tiền thắng cược đều hiển thị bằng tiền mặt.</t>
+          <t>Sử dụng các bộ chọn để đặt Kích Thước Cược, Cấp Độ Cược và Số Tiền Cược.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>RULE_DESC_12</t>
+          <t>RULE_DESC_4</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Free Spins Feature is played at the same bet size and bet level as the spin that initiated it.</t>
+          <t>“Cash Wallet” displays the cash available for wager.</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>免费旋转特色游戏的投注大小和等级不变，均与最初的旋转设置相同。</t>
+          <t>“现金钱包”显示的是可用于下注的资金。</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>จะมีการเล่นฟีเจอร์ Free Spins ที่ขนาดและระดับเดิมพันเดียวกันกับสปินเริ่มต้น</t>
+          <t>"กระเป๋าเงินสด" แสดงเงินสดที่ใช้ได้สำหรับการเดิมพัน</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Fitur Putaran Gratis dimainkan pada ukuran dan level taruhan yang sama dengan putaran awal.</t>
+          <t>"Saldo Tunai" menampilkan uang tunai yang tersedia untuk taruhan.</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>프리 스핀 기능은 시작 스핀과 동일한 베팅 사이즈 및 베팅 레벨에서 플레이됩니다.</t>
+          <t>현금 지갑은 베팅에 사용할 수 있는 현금을 표시합니다.</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>フリー・スピン機能は、一番始めにプレーしたスピンと同じベット・サイズとレベルでプレーされます。</t>
+          <t>"キャッシュ・ウォーレット "は、賭けに可能な現金を表示します。</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Tính Năng Vòng Quay Miễn Phí có cùng kích thước đặt cược và mức đặt cược như vòng quay đầu tiên.</t>
+          <t>"Ví Tiền Mặt" hiển thị số tiền mặt sẵn có để đặt cược.</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr"/>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>RULE_DESC_5</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>“Auto Spin” automatically plays the game for a selected number of rounds.</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>“自动旋转”将根据所选的回合数，自动开始游戏。</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>"หมุนอัติโนมัติ" จะเล่นเกมโดยอัตโนมัติตามจำนวนรอบที่เลือกไว้</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>"Putaran Otomatis" secara otomatis memainkan game untuk jumlah putaran yang dipilih.</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>자동 스핀은 선택한 라운드 수만큼 자동으로 게임을 플레이합니다.</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>“オート・スピン "は、選択したラウンド数だけ自動的にゲームをプレイします。</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>"Tự Động Quay" tự động chơi game theo số vòng đã chọn.</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>WILD_REEL_EVERY_SPIN</t>
+          <t>RULE_DESC_6</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>WILD REEL EVERY SPIN</t>
+          <t>Winning combinations and payouts are made according to the “Paytable”.</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Wild 转轴派对</t>
+          <t>参看赔率表，了解获胜组合和赔付信息。</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>วงล้อ Wild งานสังสรรค์</t>
+          <t>คอมโบที่ชนะและการจ่ายเงินจะเป็นไปตามตารางการจ่ายเงิน</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>PESTA WILD REEL</t>
+          <t>Jumlah kemenangan dan pembayaran mengikuti Paytable.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>와일드 릴파티</t>
+          <t>당첨 콤보와 페이아웃은 지급 표를 따릅니다.</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Wild リールパーティー.</t>
+          <t>勝利のコンボと配当はペイ・テーブルのやり方に従って行われます。</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>BỮA TIỆC CUỘN WILD</t>
+          <t>Combo thắng cược và tiền thưởng tuân theo Bảng Thanh Toán.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>WILD_REEL_EVERY_SPIN_1</t>
+          <t>RULE_DESC_7</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>A full wild reel will appear on every spin. Additional Wild symbols may appear along with the full wild reel. Wild symbol and Wild Reel substitute for all symbols except the SCATTER symbol.</t>
+          <t>Payouts are dynamically reflected based on the selected bet.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>每次旋转时都会出现一个完整的Wild转轴。额外的Wild符号可能会与完整的Wild转轴一起出现。Wild符号和Wild转轴可以替代所有符号，但SCATTER符号除外。</t>
+          <t>根据所选的投注，实时反映赔付金额。</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>วงล้อ Wild เต็มรูปแบบจะปรากฎทุกการหมุน สัญลักษณ์ Wild เพิ่มเติมอาจปรากฏขึ้นพร้อมกับวงล้อ Wild แบบเต็มรูปแบบ สัญลักษณ์ Wild และวงล้อ Wild ใช้แทนสัญลักษณ์ทั้งหมด ยกเว้นสัญลักษณ์ SCATTER</t>
+          <t>จะมีการแสดงการจ่ายเงินแบบไดนามิกตามเดิมพันที่เลือกไว้</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Reel liar penuh akan muncul di setiap putaran. Tambahan simbol Liar mungkin muncul bersamaan dengan reel liar penuh. Simbol liar dan Reel Liar menggantikan semua simbol, kecuali Simbol Scatter.</t>
+          <t>Pembayaran dinamis akan ditampilkan berdasarkan taruhan yang dipilih.</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>매 스핀마다 전체 와일드 릴이 나타납니다. 전체 와일드 릴과 함께 추가 와일드 심벌이 나타날 수 있습니다. 와일드 심벌 및 와일드 릴은 스캐터 심벌을 제외한 모든 심벌을 대체합니다.</t>
+          <t>페이아웃은 선택한 베팅에 따라 동적으로 반영됩니다.</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>スピンごとに1つのフルワイルドリールが表示されます。フルワイルドリールと一緒に追加のワイルドシンボルが表示される場合があります。ワイルドシンボルとワイルドリールは、散布シンボルを除くすべてのシンボルの代わりに使用できます。</t>
+          <t>ペイ・アウトは、選択したベットに応じてダイナミックに反映されます。</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Mỗi lượt quay sẽ có một cuộn toàn biểu tượng Wild. Những biểu tượng Wild khác cũng có thể xuất hiện cùng Cuộn Wild. Biểu tượng Wild và Cuộn Wild sẽ đại diện cho mọi biểu tượng, ngoại trừ biểu tượng SCATTER.</t>
+          <t>Tiền cược được phản ánh tự động dựa vào mức cược đã chọn.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>FREE_SPINS_FEATURE</t>
+          <t>RULE_DESC_8</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>FREE SPINS FEATURE</t>
+          <t>Bet ways win if the winning symbols are in succession from the leftmost reel to right.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>免费旋转功能</t>
+          <t>从最左至右，连续出现符号，投注线即为获胜。</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ฟีเจอร์ FREE SPINS</t>
+          <t>ไลน์เดิมพันจะชนะด้วยสัญลักษณ์ต่อเนื่องจากซ้ายสุดไปขวาสุด</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Fitur Putaran Gratis</t>
+          <t>Baris taruhan menang dengan simbol beruntun dari sisi paling kiri ke kanan.</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>무료 스핀 기능</t>
+          <t>가장 왼쪽에서 오른쪽으로 심볼이 연속적으로 표시되면 베팅 라인이 당첨됩니다.</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>フリースピン機能</t>
+          <t>左端から右端まで立て続けにシンボルがあったら、ベット・ラインの勝利です。</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Tính năng quay miễn phí</t>
+          <t>Hàng đặt cược sẽ thắng khi các biểu tượng xuất hiện liên tiếp từ ngoài cùng bên trái sang bên phải.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>RULE_FREESPINS_1</t>
+          <t>RULE_DESC_9</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>3 or more Scatter symbols award 8 Free Spins.</t>
+          <t>Only the highest win is paid per winning combination on the same pay way.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>3个或更多Scatter符号可奖励8次免费旋转。</t>
+          <t>同一条赔付线上，每个获胜组合只支付最高的奖金。</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>สัญลักษณ์ Scatter 3 ตัวขึ้นไปจะให้รางวัล 8 ฟรีสปิน</t>
+          <t>จะมีการจ่ายให้เฉพาะชัยชนะสูงสุดต่อชุดค่าผสมที่ชนะในเพย์ไลน์เดียวกันเท่านั้น</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>3 atau lebih Simbol Scatter menghadiahkan 8 Putaran Gratis.</t>
+          <t>Hanya kemenangan tertinggi per kombinasi kemenangan pada pay line yang sama yang dibayarkan.</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>3개 이상의 스캐터 심벌은 8회의 무료 스핀을 수여합니다.</t>
+          <t>동일한 페이 라인에서 당첨된 조합당 가장 높은 당첨금만 지급됩니다.</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>散布シンボルが3つ以上の場合は、8回のフリースピンを獲得します。</t>
+          <t>同じペイライン上の勝利のコンビネーションごとに、最も高い勝利のみが支払われます。</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Bạn sẽ nhận được 8 Vòng Quay Miễn Phí khi quay được từ 3 biểu tượng Scatter trở lên.</t>
+          <t>Chỉ trả số tiền thắng cược cao nhất cho mỗi combo thắng cược trên cùng một hàng thanh toán.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>RULE_FREESPINS_2</t>
+          <t>RULE_DESC_10</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Double wild Reels will appear every spin.</t>
+          <t xml:space="preserve">Simultaneous wins on different bet ways are added. </t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>每次旋转时将出现两个Wild转轴。</t>
+          <t>不同投注线同时赢奖，奖励将叠加。</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>วงล้อ Wild คู่จะปรากฎทุกสปิน</t>
+          <t>จะมีการเพิ่มชัยชนะที่เกิดขึ้นพร้อมกันไปยังไลน์เดิมพันต่างกัน</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Reel liar dobel akan muncul di setiap putaran.</t>
+          <t>Kemenangan serentak ditambahkan ke garis taruhan yang berbeda.</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>매 스핀마다 더블 와일드 릴이 나타납니다.</t>
+          <t>다양한 베팅 라인에서 동시에 당첨된 당첨금이 추가됩니다.</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>スピンごとにダブルワイルドリールが表示されます。</t>
+          <t>異なるベット・ラインでの同時の勝利の場合は追加されます。</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Hai Cuộn Wild sẽ xuất hiện mỗi lượt quay.</t>
+          <t>Tiền thưởng sẽ được cộng dồn khi thắng cược đồng thời trên các hàng đặt cược khác nhau.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>RULE_FREESPINS_3</t>
+          <t>RULE_DESC_11</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free Spins Feature is played at the same bet size and bet level as the spin that awarded the features. </t>
+          <t>All wins are shown in cash.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>免费旋转特色游戏的投注大小和等级不变，均与最初的旋转设置相同。</t>
+          <t>所有奖金以现金表示。</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>จะมีการเล่นฟีเจอร์ Free Spins ที่ขนาดและระดับเดิมพันเดียวกันกับสปินเริ่มต้น</t>
+          <t>ชัยชนะทั้งหมดจะแสดงอยู่ในรูปของเงินสด</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Fitur Putaran Gratis dimainkan pada ukuran dan level taruhan yang sama dengan putaran awal.</t>
+          <t>Kemenangan akan ditampilkan dalam bentuk uang tunai.</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>프리 스핀 기능은 시작 스핀과 동일한 베팅 사이즈 및 베팅 레벨에서 플레이됩니다.</t>
+          <t>모든 당첨금은 현금으로 표시됩니다.</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>フリー・スピン機能は、一番始めにプレーしたスピンと同じベット・サイズとレベルでプレーされます。</t>
+          <t>すべての勝利は現金で表示されます。</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Tính Năng Vòng Quay Miễn Phí có cùng kích thước đặt cược và mức đặt cược như vòng quay đầu tiên.</t>
+          <t>Tất cả số tiền thắng cược đều hiển thị bằng tiền mặt.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>RULE_FREESPINS_4</t>
+          <t>RULE_DESC_12</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scatter symbols are not available during the feature. </t>
+          <t>Free Spins Feature is played at the same bet amount as the spin that initiated it.</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>功能期间不会出现Scatter符号。</t>
+          <t>免费旋转功能以触发旋转的相同赌注金额进行。</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>สัญลักษณ์ SCATTER ไม่มีให้เลือกในระหว่างฟีเจอร์นี้</t>
+          <t>ฟีเจอร์ฟรีสปินเล่นด้วยจำนวนเดิมพันเท่ากับสปินที่เริ่มต้นมัน</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Simbol Scatter tidak tersedia selama fitur.</t>
+          <t>Fitur Free Spins dimainkan dengan jumlah taruhan yang sama dengan putaran yang memicunya.</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>해당 기능 중에는 스캐터 심벌을 사용할 수 없습니다.</t>
+          <t>무료 스핀 기능은 이를 시작한 스핀과 동일한 베팅 금액으로 진행됩니다.</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>機能のプレイ中は、散布シンボルを使用できません。</t>
+          <t>フリースピン機能は、それを開始したスピンと同じベット額でプレイされます。</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Sẽ không có biểu tượng Scatter trong tính năng này.</t>
+          <t>Tính năng Free Spins được chơi với số tiền cược giống như vòng quay đã kích hoạt nó.</t>
         </is>
       </c>
     </row>
@@ -5714,336 +5586,304 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>JACKPOT_FEATURE</t>
+          <t>MYSTERY_WILD_MULTIPLIER</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>JACKPOT FEATURE</t>
+          <t>GOLD PLATED SYMBOLS</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>头奖特征.</t>
+          <t>镀金符号</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>ฟีเจอร์แจ็คพอต</t>
+          <t>สัญลักษณ์ชุบทอง</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>FITUR JACKPOT</t>
+          <t>Simbol Berlapis Emas</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>잭팟 기능</t>
+          <t>도금된 심볼</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>ジャックポット特徴.</t>
+          <t>金メッキのシンボル</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>TÍNH NĂNG GIẢI ĐỘC ĐẮC</t>
+          <t>Biểu tượng mạ vàng</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>JACKPOT_FEATURE_1</t>
+          <t>WILD_REEL_EVERY_SPIN_1</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Each time a stand-alone Wild appears, it shoots the helicopter, and then at random, it can trigger the Mystery Jackpot, with the chance to win one of the four jackpots!</t>
+          <t>During any spins, some symbols (excluding Wild symbol and Scatter symbol) in reels 2, 3 and/or 4 may appear in gold.</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>每次单机Wild出现，可随机触发神秘头奖特征，有机会赢取四大大奖之一！</t>
+          <t>在任何旋转中，卷轴2、3和/或4中的一些符号（不包括百搭符号和分散符号）可能会以金色出现。</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>แต่ละครั้งที่ Wild แบบสแตนด์อโลนปรากฏขึ้นแบบสุ่ม ไวลด์สามารถเรียกแจ็คพอตลึกลับพร้อมโอกาสชนะหนึ่งในสี่แจ็คพอต!</t>
+          <t>ในระหว่างการหมุนใด ๆ สัญลักษณ์บางส่วน (ไม่รวมสัญลักษณ์ Wild และสัญลักษณ์ Scatter) ในรีล 2, 3 และ/หรือ 4 อาจปรากฏเป็นสีทอง</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Setiap kali Wild yang berdiri sendiri muncul, secara acak, itu dapat memicu Jackpot Misteri, dengan peluang untuk memenangkan salah satu dari empat jackpot!</t>
+          <t>Selama putaran apa pun, beberapa simbol (tidak termasuk simbol Wild dan simbol Scatter) di gulungan 2, 3, dan/atau 4 mungkin muncul dalam warna emas.</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>독립형 야생이 나타날 때마다 무작위로 4개의 잭팟 중 하나를 획득할 수 있는 기회와 함께 미스터리 잭팟을 트리거할 수 있습니다!</t>
+          <t>모든 스핀 동안, 2, 3, 4번 릴의 일부 심볼(와일드 심볼 및 스캐터 심볼 제외)이 금색으로 나타날 수 있습니다.</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>スタンドアロンのワイルドが出現するたびに、ランダムにミステリー ジャックポットがトリガーされ、4 つのジャックポットのうちの 1 つを獲得するチャンスがあります!</t>
+          <t>スピン中、リール2、3、4の一部のシンボル（ワイルドシンボルとスキャッターシンボルを除く）が金色で表示されることがあります。</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Mỗi khi một biểu tượng Wild đơn lẻ xuất hiện, nó sẽ ngẫu nhiên kích hoạt Giải Độc Đắc Bí Ẩn, với cơ hội giành được một trong bốn giải độc đắc!</t>
+          <t>Trong bất kỳ vòng quay nào, một số biểu tượng (không bao gồm biểu tượng Wild và biểu tượng Scatter) trên cuộn 2, 3 và/hoặc 4 có thể xuất hiện dưới dạng màu vàng.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>JACKPOT_FEATURE_2</t>
+          <t>WILD_REEL_EVERY_SPIN_2</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>There are 12 Suitcases to choose from. Revealing 3 matching jackpots awards the respective jackpot.</t>
+          <t>At every new round after the new symbols have cascaded down, any gold plated symbol(s) that is involved in a win in the previous round will be transformed into Wild symbol(s).</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>共有 12 个手提箱可供选择。找到 3 个匹配的头奖即可赢得相应的头奖。</t>
+          <t>在每个新回合中，当新符号下落完成后，上一回合中参与获胜的任何镀金符号将被转换为百搭符号。</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>มีกระเป๋าเดินทางให้เลือก 12 ใบ เมื่อพบรางวัลแจ็คพอตที่ตรงกัน 3 ใบ คุณจะได้รับรางวัลแจ็คพอตตามลำดับ</t>
+          <t>ในทุกๆ รอบใหม่หลังจากที่สัญลักษณ์ใหม่ได้ตกลงมาแล้ว สัญลักษณ์ Gold Plated ใดๆ ที่เกี่ยวข้องกับการชนะในรอบก่อนหน้าจะถูกแปลงเป็นสัญลักษณ์ Wild</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Ada 12 Koper yang dapat dipilih. Menampilkan 3 jackpot yang cocok akan memberikan jackpot masing-masing.</t>
+          <t>Di setiap putaran baru setelah simbol baru jatuh ke bawah, simbol Gold Plated apa pun yang terlibat dalam kemenangan di putaran sebelumnya akan diubah menjadi simbol Wild.</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>선택할 수 있는 슈트케이스는 12개입니다. 3개의 매칭 잭팟을 공개하면 해당 잭팟이 수여됩니다.</t>
+          <t>새로운 심볼이 아래로 떨어진 후 매 라운드마다, 이전 라운드에서 승리에 관여한 골드 플레이트 심볼은 와일드 심볼로 변환됩니다.</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>選択できるスーツケースは 12 個あります。3 つの一致するジャックポットを明らかにすると、それぞれのジャックポットが授与されます。</t>
+          <t>新しいシンボルがカスケードした後の各ラウンドで、前のラウンドで勝利に関与したゴールドプレートシンボルはワイルドシンボルに変換されます。</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Có 12 Chiếc Vali cho bạn chọn. Mở được 3 giải độc đắc giống nhau thì bạn sẽ nhận được giải độc đắc tương ứng.</t>
+          <t>Ở mỗi vòng mới sau khi các biểu tượng mới đã rơi xuống, bất kỳ biểu tượng Gold Plated nào tham gia vào chiến thắng ở vòng trước sẽ được chuyển đổi thành biểu tượng Wild.</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>JACKPOT_FEATURE_3</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Their default values are:</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>它们的默认金额为：</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>ค่าเริ่มต้นคือ:</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Nilai defaultnya adalah:</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>기본값은 다음과 같습니다.</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>デフォルト値は次のとおりです。</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Giá trị mặc định của giải độc đắc:</t>
-        </is>
-      </c>
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>JACKPOT_FEATURE_3_1</t>
+          <t>TUMBLE_FEATURE</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mini Jackpot = 25X total bet </t>
+          <t>TUMBLE FEATURE</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>迷你累积奖金 = 25X总投注</t>
+          <t>掉落功能</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>มินิแจ็คพอต = 25X การเดิมพันรวมทั้งหมด</t>
+          <t>ฟีเจอร์ Tumble</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Jackpot Mini = 25x total taruhan</t>
+          <t>Fitur Tumble</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>미니 잭팟 = 25X 총 베팅</t>
+          <t>텀블 기능</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>ミニジャックポット = 賭け金総額の25倍</t>
+          <t>タンブル機能</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Giải Độc Đắc Tí Hon = 25X tổng tiền cược</t>
+          <t>Tính năng Tumble</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>JACKPOT_FEATURE_3_2</t>
+          <t>RULE_TUMBLE_1</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Minor Jackpot = 75X total bet</t>
+          <t>After every spin, winning combinations are paid and all winning symbols disappear. The remaining symbols fall to the bottom of the screen and the empty positions are replaced with symbols coming from above.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>小奖累积奖金 = 75X总投注</t>
+          <t>每次旋转后，获胜组合将被支付，所有获胜符号消失。剩余的符号落到屏幕底部，空位被从上方掉落的符号替换。</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>ไมเนอร์แจ็คพอต = 75X การเดิมพันรวมทั้งหมด</t>
+          <t>หลังจากทุกๆ การหมุน ชุดค่าผสมที่ชนะจะได้รับเงินและสัญลักษณ์ที่ชนะทั้งหมดจะหายไป สัญลักษณ์ที่เหลือจะตกลงไปที่ด้านล่างของหน้าจอและตำแหน่งที่ว่างจะถูกแทนที่ด้วยสัญลักษณ์ที่ตกลงมาจากด้านบน</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Jackpot Kecil = 75 total taruhan</t>
+          <t>Setelah setiap putaran, kombinasi yang menang dibayar dan semua simbol yang menang menghilang. Simbol yang tersisa jatuh ke bagian bawah layar dan posisi kosong digantikan oleh simbol yang jatuh dari atas.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>마이너 잭팟 = 75X 총 베팅</t>
+          <t>모든 스핀 후, 승리 조합이 지급되고 모든 승리 심볼이 사라집니다. 남은 심볼은 화면 하단으로 떨어지고 빈 자리는 위에서 떨어지는 심볼로 대체됩니다.</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>マイナージャックポット = 賭け金総額の75倍</t>
+          <t>各スピンの後、勝利の組み合わせが支払われ、すべての勝利シンボルが消えます。残りのシンボルは画面の下部に落ち、空いた位置は上から落ちてくるシンボルに置き換えられます。</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Giải Độc Đắc Nhỏ = 75X tổng tiền cược</t>
+          <t>Sau mỗi vòng quay, các tổ hợp chiến thắng được thanh toán và tất cả các biểu tượng chiến thắng biến mất. Các biểu tượng còn lại rơi xuống đáy màn hình và các vị trí trống được thay thế bằng các biểu tượng rơi từ trên xuống.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>JACKPOT_FEATURE_3_3</t>
+          <t>RULE_TUMBLE_2</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Major Jackpot = 250X total bet</t>
+          <t>Tumbling will continue until no more winning combinations appear as a result of a tumble. There’s no limit to the number of possible tumbles.</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>大型头奖 = 250倍总投注</t>
+          <t>掉落将持续，直到不再有获胜组合出现。掉落次数没有限制。</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> แจ็คพอตระดับใหญ่ (Major) = 250X ของเดิมพันทั้งหมด</t>
+          <t>การ Tumble จะดำเนินต่อไปจนกว่าจะไม่มีชุดค่าผสมที่ชนะอีกต่อไปจากการ Tumble ไม่มีขีดจำกัดจำนวนครั้งที่เป็นไปได้ของการ Tumble</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jackpot Major = 250X total taruhan</t>
+          <t>Tumbling akan terus berlanjut sampai tidak ada lagi kombinasi yang menang muncul sebagai hasil dari tumbling. Tidak ada batasan jumlah tumbling yang mungkin terjadi.</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>메이저 잭팟= 전체 베팅 금액의 250배</t>
+          <t>텀블은 더 이상 승리 조합이 나타나지 않을 때까지 계속됩니다. 가능한 텀블 횟수에는 제한이 없습니다.</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Major Jackpot = 合計ベット額の250倍</t>
+          <t>タンブルは、タンブルの結果として勝利の組み合わせがなくなるまで続きます。タンブルの可能な回数に制限はありません。</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Giải Độc Đắc Lớn = 250X tổng cược</t>
+          <t>Tumble sẽ tiếp tục cho đến khi không còn tổ hợp chiến thắng nào xuất hiện. Không có giới hạn về số lần Tumble có thể xảy ra.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>JACKPOT_FEATURE_3_4</t>
+          <t>RULE_TUMBLE_3</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Grand Jackpot = 1,000X total bet</t>
+          <t>All wins are added to the player’s balance after all of the tumbles resulting from a base spin have been played.</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>巨型头奖 = 1,000倍总投注</t>
+          <t>所有获胜金额将在基础旋转导致的所有掉落完成后添加到玩家的余额中。</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>แจ็คพอตระดับสูงสุด (Grand) = 1,000X ของเดิมพันทั้งหมด</t>
+          <t>เงินรางวัลทั้งหมดจะถูกเพิ่มเข้าไปในยอดคงเหลือของผู้เล่นหลังจากที่ Tumble ทั้งหมดที่เกิดจากการหมุนพื้นฐานได้เล่นเสร็จสิ้น</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Jackpot Grand = 1,000 X total taruhan</t>
+          <t>Semua kemenangan ditambahkan ke saldo pemain setelah semua tumbling yang dihasilkan dari putaran dasar telah dimainkan.</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>그랜드 잭팟 = 전체 베팅 금액의 1,000배</t>
+          <t>모든 승리는 기본 스핀으로 인한 모든 텀블이 완료된 후 플레이어의 잔액에 추가됩니다.</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Grand Jackpot = 合計ベット額の1,000倍</t>
+          <t>すべての勝利は、ベーススピンによるすべてのタンブルがプレイされた後にプレイヤーの残高に追加されます。</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Giải Độc Đắc Siêu Lớn = 1,000 X tổng cược</t>
+          <t>Tất cả các khoản thắng cược sẽ được cộng vào số dư của người chơi sau khi tất cả các Tumble do vòng quay cơ bản gây ra đã được chơi xong.</t>
         </is>
       </c>
     </row>
@@ -6058,2742 +5898,2710 @@
       <c r="H140" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr"/>
-      <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>MULTIPLIER_FEATURE</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>MULTIPLIER</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>倍率</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>ตัวคูณ</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Pengali</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>배수</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>乗数</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Hệ số nhân</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>GAME_CONTROLS</t>
+          <t>RULE_MULTIPLIER_1</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>GAME CONTROLS</t>
+          <t>During any spins, all wins (with the exception of Scatter symbols) will be multiplied by the multiplier shown above the reels, starting with x1 in the first round.</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>游戏控制</t>
+          <t>在任何旋转中，所有获胜金额（不包括分散符号）将乘以卷轴上显示的倍率，第一轮从x1开始。</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>ปุ่มควบคุมเกม</t>
+          <t>ในการหมุนใด ๆ เงินรางวัลทั้งหมด (ยกเว้นสัญลักษณ์ Scatter) จะถูกคูณด้วยตัวคูณที่แสดงอยู่เหนือรีล โดยเริ่มจาก x1 ในรอบแรก</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>KONTROL PERMAINAN</t>
+          <t>Selama putaran apa pun, semua kemenangan (kecuali simbol Scatter) akan dikalikan dengan pengali yang ditampilkan di atas gulungan, dimulai dengan x1 di putaran pertama.</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>게임 컨트롤</t>
+          <t>모든 스핀 동안, 모든 승리(스캐터 심볼 제외)는 릴 위에 표시된 배수로 곱해지며, 첫 라운드에서는 x1부터 시작합니다.</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>ゲーム操作</t>
+          <t>スピン中、すべての勝利（スキャッターシンボルを除く）はリールの上に表示された乗数で乗算され、最初のラウンドではx1から始まります。</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>ĐIỀU KHIỂN TRÒ CHƠI</t>
+          <t>Trong bất kỳ vòng quay nào, tất cả các khoản thắng (ngoại trừ biểu tượng Scatter) sẽ được nhân với hệ số nhân hiển thị trên các cuộn, bắt đầu từ x1 ở vòng đầu tiên.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SPIN</t>
+          <t>RULE_MULTIPLIER_2</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SPIN</t>
+          <t>Any win in the first round will increase the second round's multiplier to x2</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>旋转</t>
+          <t>第一轮的任何获胜将使第二轮的倍率增加到x2。</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>หมุน</t>
+          <t>การชนะใด ๆ ในรอบแรกจะเพิ่มตัวคูณของรอบที่สองเป็น x2</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>PUTAR</t>
+          <t>Kemenangan apa pun di putaran pertama akan meningkatkan pengali putaran kedua menjadi x2.</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>회전</t>
+          <t>첫 라운드에서의 모든 승리는 두 번째 라운드의 배수를 x2로 증가시킵니다.</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>スピン</t>
+          <t>最初のラウンドでの勝利は、2番目のラウンドの乗数をx2に増やします。</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>QUAY</t>
+          <t>Bất kỳ chiến thắng nào ở vòng đầu tiên sẽ tăng hệ số nhân của vòng thứ hai lên x2.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>RULE_SPIN_1</t>
+          <t>RULE_MULTIPLIER_3</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Tap to start spin at the current Base Bet, Bet Size and Bet Level.</t>
+          <t>Any win in the second round will increase the third round's multiplier to x3</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>单击以当前基础投注、投注规模和投注级别开始旋转。</t>
+          <t>第二轮的任何获胜将使第三轮的倍率增加到x3。</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>แตะเพื่อเริ่มหมุนด้วยเดิมพันพื้นฐาน ขนาดเดิมพัน และระดับเดิมพันปัจจุบัน</t>
+          <t>การชนะใด ๆ ในรอบที่สองจะเพิ่มตัวคูณของรอบที่สามเป็น x3</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Ketuk untuk memulai putaran pada Level Taruhan, Ukuran Taruhan, dan Taruhan Dasar saat ini.</t>
+          <t>Kemenangan apa pun di putaran kedua akan meningkatkan pengali putaran ketiga menjadi x3.</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>현재 베이스 베팅, 베팅 사이즈 및 베팅 레벨에서 스핀을 시작하려면 탭하세요.</t>
+          <t>두 번째 라운드에서의 모든 승리는 세 번째 라운드의 배수를 x3로 증가시킵니다.</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>タップすると、現在のベースベット、ベットサイズ、ベットレベルでスピンを開始します。</t>
+          <t>2番目のラウンドでの勝利は、3番目のラウンドの乗数をx3に増やします。</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Nhấn để bắt đầu quay với Mức Cược Cơ Sở, Quy Mô Cược, và Cấp Độ Cược hiện tại.</t>
+          <t>Bất kỳ chiến thắng nào ở vòng thứ hai sẽ tăng hệ số nhân của vòng thứ ba lên x3.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>RULE_SPIN_2</t>
+          <t>RULE_MULTIPLIER_4</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Tap the button or the game area during a spin to stop the reels.</t>
+          <t>Any win in the third round will increase the fourth round's multiplier to x5</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>在旋转中单击按钮或游戏区域来停止卷轴。</t>
+          <t>第三轮的任何获胜将使第四轮的倍率增加到x5。</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>แตะที่ปุ่มหรือพื้นที่เล่นเกมในระหว่างการหมุนเพื่อหยุดวงล้อ</t>
+          <t>การชนะใด ๆ ในรอบที่สามจะเพิ่มตัวคูณของรอบที่สี่เป็น x5</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Ketuk tombol atau area permainan selama putaran untuk menghentikan kumparan.</t>
+          <t>Kemenangan apa pun di putaran ketiga akan meningkatkan pengali putaran keempat menjadi x5.</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>스핀 중 릴을 정지하려면 버튼이나 게임 구역을 탭하세요.</t>
+          <t>세 번째 라운드에서의 모든 승리는 네 번째 라운드의 배수를 x5로 증가시킵니다.</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>スピン中にボタンまたはゲームエリアをタップすると、リールがストップします。</t>
+          <t>3番目のラウンドでの勝利は、4番目のラウンドの乗数をx5に増やします。</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Nhấn nút hoặc nhấn vào khu vực trò chơi trong khi quay để dừng các cuộn.</t>
+          <t>Bất kỳ chiến thắng nào ở vòng thứ ba sẽ tăng hệ số nhân của vòng thứ tư lên x5.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>RULE_SPIN_3</t>
+          <t>RULE_MULTIPLIER_5</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Press the &lt;Space&gt; key to start spin at the current Base Bet, Bet Size and Bet Level. (applicable to PC version only)</t>
+          <t>Any win in the fourth round will increase the fifth round's (and beyond) multiplier to x10</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>按下&lt;Space&gt;键以当前基础投注、投注规模和投注级别开始旋转。（仅适用于电脑版本）</t>
+          <t>第四轮的任何获胜将使第五轮（及以后）的倍率增加到x10。</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>กดปุ่ม &lt;Space&gt; เพิ่มเริ่มหมุนด้วยฐานเดิมพัน ขนาดการเดิมพัน และระดับการเดิมพันปัจจุบัน (สำหรับเวอร์ชันคอมพิวเตอร์เท่านั้น)</t>
+          <t>การชนะใด ๆ ในรอบที่สี่จะเพิ่มตัวคูณของรอบที่ห้า (และต่อไป) เป็น x10</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Ketuk kunci &lt;Spasi&gt; untuk memulai putaran pada Level Taruhan, Ukuran Taruhan, dan Taruhan Dasar saat ini. (hanya berlaku untuk versi komputer)</t>
+          <t>Kemenangan apa pun di putaran keempat akan meningkatkan pengali putaran kelima (dan seterusnya) menjadi x10.</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>현재 베이스 베팅, 베팅 사이즈 및 베팅 레벨에서 스핀을 시작하려면 &lt;스페이스&gt; 키를 누르세요. (개인용 컴퓨터 버전에만 해당)</t>
+          <t>네 번째 라운드에서의 모든 승리는 다섯 번째 라운드(및 이후)의 배수를 x10로 증가시킵니다.</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>&lt;スペース&gt; キーを押すと、現在のベースベット、ベットサイズ、ベットレベルでスピンを開始します。（パーソナルコンピューター 版のみ適用）</t>
+          <t>4番目のラウンドでの勝利は、5番目のラウンド（以降）の乗数をx10に増やします。</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Nhấn &lt; Phím Cách&gt; để bắt đầu quay với Mức Cược Cơ Sở, Quy Mô Cược, và Cấp Độ Cược hiện tại. (Chỉ áp dụng với phiên bản máy tính)</t>
+          <t>Bất kỳ chiến thắng nào ở vòng thứ tư sẽ tăng hệ số nhân của vòng thứ năm (và các vòng tiếp theo) lên x10.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>RULE_SPIN_4</t>
+          <t>RULE_MULTIPLIER_6</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Press and Hold &lt;Space&gt; key will continue game spins until it is released. (applicable to PC version only)</t>
+          <t>The Multiplier resets after losing a Tumble.</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>长按&lt;Space&gt;键将继续游戏旋转，直到松开为止。（仅适用于电脑版本）</t>
+          <t>倍率在掉落失败后重置。</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>กดปุ่ม &lt;Space&gt; ค้างไว้จะเป็นการหมุนเกมต่อจนกว่าจะปล่อย (สำหรับเวอร์ชันคอมพิวเตอร์เท่านั้น)</t>
+          <t>ตัวคูณจะรีเซ็ตหลังจากแพ้ Tumble</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Tekan dan Tahan kunci &lt;Spasi&gt; untuk melanjutkan putaran permainan hingga kunci dilepaskan. (hanya berlaku untuk versi komputer)</t>
+          <t>Pengali akan direset setelah kalah dalam Tumble.</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>&lt;스페이스&gt; 키를 누르고 홀드하는 동안에는 게임 스핀이 계속됩니다. (개인용 컴퓨터 버전에만 해당)</t>
+          <t>배수는 텀블에서 패배한 후 재설정됩니다.</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>&lt;スペース&gt; キーを押し続けると、離すまでスピンが続きます（パーソナルコンピューター 版のみ適用）</t>
+          <t>乗数はタンブルで負けた後にリセットされます。</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Nhấn và giữ &lt;Phím Cách&gt; để tiếp tục trò chơi cho đến khi ngừng giữ phím. (Chỉ áp dụng với phiên bản máy tính)</t>
+          <t>Hệ số nhân sẽ được đặt lại sau khi thua trong Tumble.</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>STOP</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>STOP</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>停止</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>หยุด</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>BERHENTI</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>중지</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>ストップ</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>DỪNG</t>
-        </is>
-      </c>
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>RULE_STOP_1</t>
+          <t>FREE_SPINS_FEATURE</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Tap to stop Auto Spin.</t>
+          <t>FREE SPINS FEATURE</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>单击以停止自动旋转。</t>
+          <t>免费旋转功能</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>แตะเพื่อหยุดการหมุนอัตโนมัติ</t>
+          <t>ฟีเจอร์ฟรีสปิน</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Ketuk untuk menghentikan Putar Otomatis.</t>
+          <t>Fitur Free Spins</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>자동 스핀을 멈추려면 탭하세요.</t>
+          <t>무료 스핀 기능</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>タップすると、オートスピンがストップします。</t>
+          <t>フリースピン機能</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Nhấn để dừng Quay Tự Động</t>
+          <t>Tính năng Free Spins</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>RULE_STOP_2</t>
+          <t>RULE_FREESPINS_1</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>The number on the button indicates the remaining number of spins for Auto Spin.</t>
+          <t>If there are 3 or more Scatter Symbols on the screen, the player is awarded with 15 free spins and a win in cash equal to the value of Scatter shown in the Paytable</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>按钮上的数字代表自动旋转的剩余旋转次数。</t>
+          <t>如果屏幕上有3个或更多分散符号，玩家将获得15次免费旋转和等于Paytable中显示的分散符号价值的现金奖励。</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>จำนวนเลขบนปุ่มแสดงจำนวนการหมุนสำหรับการหมุนอัตโนมัติที่เหลืออยู่</t>
+          <t>หากมีสัญลักษณ์ Scatter 3 ตัวหรือมากกว่าบนหน้าจอ ผู้เล่นจะได้รับ 15 ฟรีสปินและเงินรางวัลเท่ากับมูลค่าของ Scatter ที่แสดงใน Paytable</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Angka pada tombol menandakan jumlah putaran yang tersisa untuk Putar Otomatis.</t>
+          <t>Jika ada 3 atau lebih Simbol Scatter di layar, pemain akan diberikan 15 putaran gratis dan kemenangan tunai senilai Scatter yang ditampilkan di Paytable.</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>버튼의 숫자는 자동 스핀에서 남은 스핀 수를 표시합니다.</t>
+          <t>화면에 스캐터 심볼이 3개 이상 있으면, 플레이어는 15번의 무료 스핀과 Paytable에 표시된 스캐터 심볼의 가치와 동일한 현금 상금을 받습니다.</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>ボタンの数字は、オートスピンの残りのスピン回数を示しています。</t>
+          <t>画面上にスキャッターシンボルが3つ以上ある場合、プレイヤーは15回のフリースピンとPaytableに表示されたスキャッターシンボルの価値に相当する現金賞を獲得します。</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Chữ số trên nút thể hiện số lượt quay tự động còn lại.</t>
+          <t>Nếu có 3 hoặc nhiều biểu tượng Scatter trên màn hình, người chơi sẽ được thưởng 15 vòng quay miễn phí và một khoản tiền thắng bằng giá trị của biểu tượng Scatter được hiển thị trong Paytable.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>MINUS</t>
+          <t>RULE_FREESPINS_2</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MINUS</t>
+          <t>The multipliers above the reels will be increased to x3, x6, x9, x15 and x30 respectively.</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>减</t>
+          <t>卷轴上方的倍率将分别增加到x3、x6、x9、x15和x30。</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>ลบ</t>
+          <t>ตัวคูณเหนือรีลจะเพิ่มขึ้นเป็น x3, x6, x9, x15 และ x30 ตามลำดับ</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>KURANG</t>
+          <t>Pengali di atas gulungan akan ditingkatkan menjadi x3, x6, x9, x15, dan x30 secara berturut-turut.</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>마이너스</t>
+          <t>릴 위의 배수는 각각 x3, x6, x9, x15 및 x30로 증가합니다.</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>マイナス</t>
+          <t>リールの上の乗数は、それぞれx3、x6、x9、x15、x30に増加します。</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>TRỪ</t>
+          <t>Hệ số nhân trên các cuộn sẽ được tăng lên lần lượt là x3, x6, x9, x15 và x30.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>RULE_MINUS_1</t>
+          <t>RULE_FREESPINS_3</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tap to reduce the Bet Amount</t>
+          <t>During any spins, all wins will be multiplied by the multiplier shown above the reels, starting with x3 in the first round.</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>单击来减少投注金额</t>
+          <t>在任何旋转中，所有获胜金额将乘以卷轴上显示的倍率，第一轮从x3开始。</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>แตะเพื่อลดจำนวนเดิมพัน</t>
+          <t>ในการหมุนใด ๆ เงินรางวัลทั้งหมดจะถูกคูณด้วยตัวคูณที่แสดงอยู่เหนือรีล โดยเริ่มจาก x3 ในรอบแรก</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Ketuk untuk mengurangi Jumlah Taruhan</t>
+          <t>Selama putaran apa pun, semua kemenangan akan dikalikan dengan pengali yang ditampilkan di atas gulungan, dimulai dengan x3 di putaran pertama.</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>탭하여 베팅 금액을 줄입니다.</t>
+          <t>모든 스핀 동안, 모든 승리는 릴 위에 표시된 배수로 곱해지며, 첫 라운드에서는 x3부터 시작합니다.</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>タップしてベット額を減らします。</t>
+          <t>スピン中、すべての勝利はリールの上に表示された乗数で乗算され、最初のラウンドではx3から始まります。</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Nhấn để giảm Tổng Tiền Cược</t>
+          <t>Trong bất kỳ vòng quay nào, tất cả các khoản thắng sẽ được nhân với hệ số nhân hiển thị trên các cuộn, bắt đầu từ x3 ở vòng đầu tiên.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>PLUS</t>
+          <t>RULE_FREESPINS_4</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>PLUS</t>
+          <t>The Multiplier resets after losing a Tumble.</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>加</t>
+          <t>倍率在掉落失败后重置。</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>เพิ่ม</t>
+          <t>ตัวคูณจะรีเซ็ตหลังจากแพ้ Tumble</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>TAMBAH</t>
+          <t>Pengali akan direset setelah kalah dalam Tumble.</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>플러스</t>
+          <t>배수는 텀블에서 패배한 후 재설정됩니다.</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>プラス</t>
+          <t>乗数はタンブルで負けた後にリセットされます。</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>CỘNG</t>
+          <t>Hệ số nhân sẽ được đặt lại sau khi thua trong Tumble.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>RULE_PLUS_1</t>
+          <t>RULE_FREESPINS_5</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Tap to increase the Bet Amount.</t>
+          <t>Free Spins cannot be retriggered.</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>点击增加投注金额。</t>
+          <t>免费旋转不能重新触发。</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>แตะเพื่อเพิ่มจำนวนเดิมพัน</t>
+          <t>ฟรีสปินไม่สามารถเรียกใช้งานซ้ำได้</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Ketuk untuk menambah Jumlah Taruhan.</t>
+          <t>Free Spins tidak dapat dipicu ulang.</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>탭하여 베팅 금액을 늘립니다.</t>
+          <t>무료 스핀은 다시 트리거할 수 없습니다.</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>タップしてベット額を増やします。</t>
+          <t>フリースピンは再トリガーできません。</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Nhấn để tăng Tổng Tiền Cược</t>
+          <t>Free Spins không thể được kích hoạt lại.</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>WALLET_BALANCE</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>WALLET BALANCE</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>钱包余额</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>ยอดเงินในกระเป๋าเงิน</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>SALDO DOMPET</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>지갑 잔액</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>ウォレット残高</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>SỐ DƯ VÍ</t>
-        </is>
-      </c>
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>RULE_WALLET_1</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Tap to display the balance of available wallets.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>单击以显示可用钱包的余额。</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>แตะเพื่อแสดงยอดคงเหลือที่มีอยู่ในกระเป๋า</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Ketuk untuk menampilkan saldo dompet yang tersedia.</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>사용 가능한 잔고를 표시하려면 탭하세요.</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>タップすると、利用可能なウォレットの残高が表示されます。</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>Nhấn vào để xem số dư của các ví đang có.</t>
-        </is>
-      </c>
+      <c r="A156" t="inlineStr"/>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>RULE_BET_AMOUNT</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>BET AMOUNT</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>投注金额</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>จำนวนเงินเดิมพัน</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>JUMLAH TARUHAN</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>베팅 금액</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>ベット額</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>SỐ TIỀN CƯỢC</t>
-        </is>
-      </c>
+      <c r="A157" t="inlineStr"/>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>RULE_BET_AMOUNT_1</t>
+          <t>GAME_CONTROLS</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Tap to display the Bet Options.</t>
+          <t>GAME CONTROLS</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>单击以显示投注选项。</t>
+          <t>游戏控制</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>แตะเพื่อแสดงตัวเลือกการเดิมพัน</t>
+          <t>ปุ่มควบคุมเกม</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Ketuk untuk menampilkan Opsi Taruhan.</t>
+          <t>KONTROL PERMAINAN</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>베팅 옵션을 표시하려면 탭하세요.</t>
+          <t>게임 컨트롤</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>タップすると、ベットオプションが表示されます。</t>
+          <t>ゲーム操作</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Nhấn vào để xem tùy chỉnh cược</t>
+          <t>ĐIỀU KHIỂN TRÒ CHƠI</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>RULE_BET_AMOUNT_2</t>
+          <t>SPIN</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Bet Size: Scroll to select the Bet Size.</t>
+          <t>SPIN</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>投注规模：滑动以选择投注规模。</t>
+          <t>旋转</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>ขนาดการเดิมพัน: เลื่อนเพื่อเลือกขนาดการเดิมพัน</t>
+          <t>หมุน</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Ukuran Taruhan: Gulir untuk memilih Ukuran Taruhan.</t>
+          <t>PUTAR</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>베팅 사이즈: 스크롤해서 베팅 사이즈를 선택하세요.</t>
+          <t>회전</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>ベットサイズ:スクロールしてベットサイズを変更します。</t>
+          <t>スピン</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Quy mô: cuộn lên/xuống để lựa chọn quy mô cược</t>
+          <t>QUAY</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>RULE_BET_AMOUNT_3</t>
+          <t>RULE_SPIN_1</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Bet Level: Scroll to select the Bet Level.</t>
+          <t>Tap to start spin.</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>投注级别：滑动以选择投注级别。</t>
+          <t>点击开始旋转。</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>ระดับการเดิมพัน: เลื่อนเพื่อเลือกระดับการเดิมพัน</t>
+          <t>แตะเพื่อเริ่มหมุน</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Level Taruhan: Gulir untuk memilih Level Taruhan.</t>
+          <t>Ketuk untuk memulai putaran.</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>베팅 레벨: 스크롤해서 베팅 레벨을 선택하세요.</t>
+          <t>탭하여 스핀을 시작하세요.</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>ベットレベル:スクロールしてベットレベルを変更します。</t>
+          <t>タップしてスピンを開始します。</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Cấp độ: cuộn lên/xuống để lựa chọn cấp độ cược</t>
+          <t>Nhấn để bắt đầu quay.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>RULE_BET_AMOUNT_4</t>
+          <t>RULE_SPIN_2</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Bet Amount: Scroll to select the Bet Amount.</t>
+          <t>Tap the button or the game area during a spin to stop the reels.</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>投注金额：滑动以选择投注金额。</t>
+          <t>在旋转中单击按钮或游戏区域来停止卷轴。</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>จำนวนเดิมพัน: เลื่อนเพื่อเลือกจำนวนเดิมพัน</t>
+          <t>แตะที่ปุ่มหรือพื้นที่เล่นเกมในระหว่างการหมุนเพื่อหยุดวงล้อ</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Jumlah Taruhan: Gulir untuk memilih Jumlah Taruhan.</t>
+          <t>Ketuk tombol atau area permainan selama putaran untuk menghentikan kumparan.</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>베팅 금액: 스크롤해서 베팅 금액을 선택하세요.</t>
+          <t>스핀 중 릴을 정지하려면 버튼이나 게임 구역을 탭하세요.</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>ベット額:スクロールしてベット額を変更します。</t>
+          <t>スピン中にボタンまたはゲームエリアをタップすると、リールがストップします。</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Tổng tiền: cuộn lên/xuống để lựa chọn tổng tiền cược</t>
+          <t>Nhấn nút hoặc nhấn vào khu vực trò chơi trong khi quay để dừng các cuộn.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>RULE_BET_AMOUNT_5</t>
+          <t>RULE_SPIN_3</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Max Bet: Tap to set Bet Size and Bet Level to maximum value.</t>
+          <t>Press the &lt;Space&gt; key to start spin. (applicable to PC version only)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>最大投注：单击将投注规模和投注级别设为最大值。</t>
+          <t>按&lt;空格键&gt;开始旋转。（仅适用于PC版本）</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>เดิมพันสูงสุด: แตะเพื่อตั้งขนาดการเดิมพันและระดับการเดิมพันไปที่มูลค่าสูงสุด</t>
+          <t>กดปุ่ม &lt;Space&gt; เพื่อเริ่มหมุน (ใช้ได้กับเวอร์ชัน PC เท่านั้น)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Taruhan Maks: Ketuk untuk menentukan Ukuran Taruhan dan Level Taruhan ke nilai maksimum.</t>
+          <t>Tekan tombol &lt;Space&gt; untuk memulai putaran. (hanya berlaku untuk versi PC)</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>맥시멈 베팅: 베팅 사이즈 및 베팅 레벨을 맥시멈 값으로 정하려면 탭하세요.</t>
+          <t>&lt;Space&gt; 키를 눌러 스핀을 시작하세요. (PC 버전만 해당)</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>最大ベット:タップすると、ベットサイズとベットレベルを最大に変更できます。</t>
+          <t>&lt;スペース&gt;キーを押してスピンを開始します。（PC版のみ適用）</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Cược Tối Đa: Nhấn để chọn Quy Mô Cược và Cấp Độ Cược tối đa</t>
+          <t>Nhấn phím &lt;Space&gt; để bắt đầu quay. (chỉ áp dụng cho phiên bản PC)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>WIN_AMOUNT</t>
+          <t>RULE_SPIN_4</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>WIN AMOUNT</t>
+          <t>Press and Hold &lt;Space&gt; key will continue game spins until it is released. (applicable to PC version only)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>赢取金额</t>
+          <t>长按&lt;Space&gt;键将继续游戏旋转，直到松开为止。（仅适用于电脑版本）</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>จำนวนเงินที่ชนะ</t>
+          <t>กดปุ่ม &lt;Space&gt; ค้างไว้จะเป็นการหมุนเกมต่อจนกว่าจะปล่อย (สำหรับเวอร์ชันคอมพิวเตอร์เท่านั้น)</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>JUMLAH MENANG</t>
+          <t>Tekan dan Tahan kunci &lt;Spasi&gt; untuk melanjutkan putaran permainan hingga kunci dilepaskan. (hanya berlaku untuk versi komputer)</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>승리 금액</t>
+          <t>&lt;스페이스&gt; 키를 누르고 홀드하는 동안에는 게임 스핀이 계속됩니다. (개인용 컴퓨터 버전에만 해당)</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>勝利額</t>
+          <t>&lt;スペース&gt; キーを押し続けると、離すまでスピンが続きます（パーソナルコンピューター 版のみ適用）</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>SỐ TIỀN THẮNG</t>
+          <t>Nhấn và giữ &lt;Phím Cách&gt; để tiếp tục trò chơi cho đến khi ngừng giữ phím. (Chỉ áp dụng với phiên bản máy tính)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>RULE_WIN_AMOUNT_1</t>
+          <t>STOP</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Tap to display the Game History.</t>
+          <t>STOP</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>单击以显示游戏历史记录。</t>
+          <t>停止</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>แตะเพื่อแสดงประวัติเกม</t>
+          <t>หยุด</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Ketuk untuk menampilkan Riwayat Permainan.</t>
+          <t>BERHENTI</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>게임 기록을 표시하려면 탭하세요.</t>
+          <t>중지</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>タップすると、ゲーム履歴が表示されます。</t>
+          <t>ストップ</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Nhấn để xem Lịch sử Trò chơi.</t>
+          <t>DỪNG</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>RULE_AUTO_SPIN</t>
+          <t>RULE_STOP_1</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>AUTO SPIN</t>
+          <t>Tap to stop Auto Spin.</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>自动旋转</t>
+          <t>单击以停止自动旋转。</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>หมุนอัตโนมัติ</t>
+          <t>แตะเพื่อหยุดการหมุนอัตโนมัติ</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>PUTAR OTOMATIS</t>
+          <t>Ketuk untuk menghentikan Putar Otomatis.</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>자동 회전</t>
+          <t>자동 스핀을 멈추려면 탭하세요.</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>オートスピン</t>
+          <t>タップすると、オートスピンがストップします。</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>TỰ ĐỘNG QUAY</t>
+          <t>Nhấn để dừng Quay Tự Động</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>RULE_AUTO_SPIN_1</t>
+          <t>RULE_STOP_2</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Auto Spin automatically plays the game for a selected number of spins.</t>
+          <t>The number on the button indicates the remaining number of spins for Auto Spin.</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>自动旋转以选定次数的旋转自动进行游戏。</t>
+          <t>按钮上的数字代表自动旋转的剩余旋转次数。</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>การหมุนอัตโนมัติจะเล่นเกมตามจำนวนการหมุนที่เลือกไว้ให้โดยอัตโนมัติ</t>
+          <t>จำนวนเลขบนปุ่มแสดงจำนวนการหมุนสำหรับการหมุนอัตโนมัติที่เหลืออยู่</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Putar Otomatis memainkan permainan secara otomatis untuk jumlah yang telah ditentukan.</t>
+          <t>Angka pada tombol menandakan jumlah putaran yang tersisa untuk Putar Otomatis.</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>자동 스핀은 선택된 수의 스핀 동안 자동으로 게임을 플레이합니다.</t>
+          <t>버튼의 숫자는 자동 스핀에서 남은 스핀 수를 표시합니다.</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>オートスピンは、指定した回数のスピンでゲームを自動的に行います。</t>
+          <t>ボタンの数字は、オートスピンの残りのスピン回数を示しています。</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Chế độ Quay Tự Động cho phép tự động chơi trò chơi trong một số lượt chơi đã chọn.</t>
+          <t>Chữ số trên nút thể hiện số lượt quay tự động còn lại.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>RULE_AUTO_SPIN_2</t>
+          <t>MINUS</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Tap on the values to select the number of Auto Spins.</t>
+          <t>MINUS</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>单击数值来选择自动旋转次数。</t>
+          <t>减</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>แตะที่ค่าเพื่อเลือกจำนวนการหมุนอัตโนมัติ</t>
+          <t>ลบ</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Ketuk pada nilai untuk memilih jumlah Putar Otomatis.</t>
+          <t>KURANG</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>자동 스핀 수를 선택하려면 숫자를 탭하세요.</t>
+          <t>마이너스</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>数字をタップすると、オートスピン回数を指定できます。</t>
+          <t>マイナス</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Nhấn vào để lựa chọn số lượt Quay Tự Động.</t>
+          <t>TRỪ</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>TURBO_SPIN</t>
+          <t>RULE_MINUS_1</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TURBO SPIN</t>
+          <t>Tap to reduce the Bet Amount</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>快速旋转</t>
+          <t>单击来减少投注金额</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>หมุนไว</t>
+          <t>แตะเพื่อลดจำนวนเดิมพัน</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>PUTARAN TURBO</t>
+          <t>Ketuk untuk mengurangi Jumlah Taruhan</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>터보 회전</t>
+          <t>탭하여 베팅 금액을 줄입니다.</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>ターボスピン</t>
+          <t>タップしてベット額を減らします。</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>QUAY TURBO</t>
+          <t>Nhấn để giảm Tổng Tiền Cược</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>RULE_TURBO_SPIN_1</t>
+          <t>PLUS</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Tap to enable or disable the Turbo Spin, which will reduce the duration of reel spins in the main game.</t>
+          <t>PLUS</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>单击开启或关闭极速旋转，该功能将缩短主游戏中卷轴旋转的持续时间。</t>
+          <t>加</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>แตะเพื่อเปิดหรือปิดเทอร์โบสปินซึ่งช่วยลดระยะเวลาการหมุนของวงล้อในเกมหลัก</t>
+          <t>เพิ่ม</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Ketuk untuk mengaktifkan atau menonaktifkan Putar Turbo, yang akan mengurangi durasi putaran kumparan pada permainan utama.</t>
+          <t>TAMBAH</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>메인 게임의 릴 스핀 시간을 줄여 주는 터보 스핀을 활성화 또는 비활성화하려면 탭하세요.</t>
+          <t>플러스</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>タップすると、メインゲームでのリールスピンの持続時間を短縮できる、ターボスピンの有効化、無効化ができます。</t>
+          <t>プラス</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Nhấn để kích hoạt hoặc vô hiệu hóa chế độ Quay Tăng Cường. Chế độ Quay Tăng Cường cho phép giảm thời gian quay của một vòng quay trong màn chơi chính.</t>
+          <t>CỘNG</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>RULE_SOUND</t>
+          <t>RULE_PLUS_1</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>SOUND</t>
+          <t>Tap to increase the Bet Amount.</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>声音</t>
+          <t>点击增加投注金额。</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>เสียง</t>
+          <t>แตะเพื่อเพิ่มจำนวนเดิมพัน</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>SUARA</t>
+          <t>Ketuk untuk menambah Jumlah Taruhan.</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>소리</t>
+          <t>탭하여 베팅 금액을 늘립니다.</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>音</t>
+          <t>タップしてベット額を増やします。</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>ÂM THANH</t>
+          <t>Nhấn để tăng Tổng Tiền Cược</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>RULE_SOUND_1</t>
+          <t>WALLET_BALANCE</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Tap to turn sound ON or OFF.</t>
+          <t>WALLET BALANCE</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>单击开启或关闭声音。</t>
+          <t>钱包余额</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>แตะเพื่อเปิดหรือปิดเสียง</t>
+          <t>ยอดเงินในกระเป๋าเงิน</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Ketuk untuk MENGAKTIFKAN atau MENONAKTIFKAN suara.</t>
+          <t>SALDO DOMPET</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>사운드를 켜거나 끄려면 탭하세요.</t>
+          <t>지갑 잔액</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>タップすると、サウンドのオン、オフが行えます。</t>
+          <t>ウォレット残高</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Nhấn để Bật hoặc Tắt âm thanh.</t>
+          <t>SỐ DƯ VÍ</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>RULE_PAYTABLE</t>
+          <t>RULE_WALLET_1</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>PAYTABLE</t>
+          <t>Tap to display the balance of available wallets.</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>赔率表</t>
+          <t>单击以显示可用钱包的余额。</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>ตารางการจ่ายเงิน</t>
+          <t>แตะเพื่อแสดงยอดคงเหลือที่มีอยู่ในกระเป๋า</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Tabel Pembayaran</t>
+          <t>Ketuk untuk menampilkan saldo dompet yang tersedia.</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>배당표</t>
+          <t>사용 가능한 잔고를 표시하려면 탭하세요.</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>支払い表</t>
+          <t>タップすると、利用可能なウォレットの残高が表示されます。</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Bảng trả thưởng</t>
+          <t>Nhấn vào để xem số dư của các ví đang có.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>RULE_PAYTABLE_1</t>
+          <t>RULE_BET_AMOUNT</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Shows winning combinations and paytable.</t>
+          <t>BET AMOUNT</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>显示获胜组合和赔率表。</t>
+          <t>投注金额</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>แสดงชุดค่าผสมที่ชนะและตารางการจ่ายเงิน</t>
+          <t>จำนวนเงินเดิมพัน</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Tampilkan kombinasi kemenangan dan tabel pembayaran.</t>
+          <t>JUMLAH TARUHAN</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>당첨 조합과 지급 표를 표시합니다.</t>
+          <t>베팅 금액</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>ウィニング・コンビネーションとペイ・テーブルを確認できます。</t>
+          <t>ベット額</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Hiển thị combo thắng cược và bảng thanh toán.</t>
+          <t>SỐ TIỀN CƯỢC</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>RULE_RULES</t>
+          <t>RULE_BET_AMOUNT_1</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RULES</t>
+          <t>Tap to display the Bet Options.</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>规则</t>
+          <t>单击以显示投注选项。</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>กฎ</t>
+          <t>แตะเพื่อแสดงตัวเลือกการเดิมพัน</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Aturan</t>
+          <t>Ketuk untuk menampilkan Opsi Taruhan.</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>규칙</t>
+          <t>베팅 옵션을 표시하려면 탭하세요.</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>ルール</t>
+          <t>タップすると、ベットオプションが表示されます。</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Quy Tắc</t>
+          <t>Nhấn vào để xem tùy chỉnh cược</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>RULE_RULES_1</t>
+          <t>RULE_BET_AMOUNT_4</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Show the game rules and button functions.</t>
+          <t>Bet Amount: Scroll to select the Bet Amount.</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>显示游戏规则和按钮功能。</t>
+          <t>投注金额：滑动以选择投注金额。</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>แสดงกฎและปุ่มเล่นเกม</t>
+          <t>จำนวนเดิมพัน: เลื่อนเพื่อเลือกจำนวนเดิมพัน</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Menunjukkan peraturan permainan dan fungsi tombol.</t>
+          <t>Jumlah Taruhan: Gulir untuk memilih Jumlah Taruhan.</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>게임 규칙과 버튼 기능을 표시합니다.</t>
+          <t>베팅 금액: 스크롤해서 베팅 금액을 선택하세요.</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>ゲームのルールとボタンの機能を表示します。</t>
+          <t>ベット額:スクロールしてベット額を変更します。</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Thể hiện luật chơi và chức năng của các nút.</t>
+          <t>Tổng tiền: cuộn lên/xuống để lựa chọn tổng tiền cược</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>RULE_HISTORY</t>
+          <t>WIN_AMOUNT</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>HISTORY</t>
+          <t>WIN AMOUNT</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>历史</t>
+          <t>赢取金额</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>ประวัติศาสตร์</t>
+          <t>จำนวนเงินที่ชนะ</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>RIWAYAT</t>
+          <t>JUMLAH MENANG</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>역사</t>
+          <t>승리 금액</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>履歴</t>
+          <t>勝利額</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>LỊCH SỬ</t>
+          <t>SỐ TIỀN THẮNG</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>RULE_HISTORY_1</t>
+          <t>RULE_WIN_AMOUNT_1</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Shows details of the previous games played. Scroll down to the end to load more records.</t>
+          <t>Tap to display the Game History.</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>显示之前玩过的游戏详情。滑动至底部来加载更多纪录。</t>
+          <t>单击以显示游戏历史记录。</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>แสดงรายละเอียดของเกมที่เล่นก่อนหน้า เลื่อนลงสุดเพื่อโหลดบันทึกเพิ่มเติม</t>
+          <t>แตะเพื่อแสดงประวัติเกม</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Menunjukkan detail permainan yang telah dimainkan sebelumnya. Gulir ke bawah sampai akhir untuk memuat lebih banyak catatan.</t>
+          <t>Ketuk untuk menampilkan Riwayat Permainan.</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>이전에 플레이한 게임의 세부 사항을 보여줍니다. 끝으로 스크롤하여 더 많은 기록을 로드하세요.</t>
+          <t>게임 기록을 표시하려면 탭하세요.</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>過去にプレイしたゲームの詳細を表示します。最後までスクロールすると、さらに多くの記録を読み込めます。</t>
+          <t>タップすると、ゲーム履歴が表示されます。</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Thể hiện chi tiết về các lượt chơi trước. Kéo xuống dưới để tải thêm bản ghi.</t>
+          <t>Nhấn để xem Lịch sử Trò chơi.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>RULE_HISTORY_2_1</t>
+          <t>RULE_AUTO_SPIN</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Tap</t>
+          <t>AUTO SPIN</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>点击</t>
+          <t>自动旋转</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>แตะ</t>
+          <t>หมุนอัตโนมัติ</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>KETUK</t>
+          <t>PUTAR OTOMATIS</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>탭</t>
+          <t>자동 회전</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>タップ</t>
+          <t>オートスピン</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>CHẠM</t>
+          <t>TỰ ĐỘNG QUAY</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>RULE_HISTORY_2_2</t>
+          <t>RULE_AUTO_SPIN_1</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>to select the dates of games to be shown in History.</t>
+          <t>Auto Spin automatically plays the game for a selected number of spins.</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>来选择历史记录中显示的游戏日期。</t>
+          <t>自动旋转以选定次数的旋转自动进行游戏。</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>เพื่อเลือกวันที่ของเกมที่ต้องการแสดงในประวัติ</t>
+          <t>การหมุนอัตโนมัติจะเล่นเกมตามจำนวนการหมุนที่เลือกไว้ให้โดยอัตโนมัติ</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>untuk memilih tanggal permainan yang akan ditampilkan pada Riwayat.</t>
+          <t>Putar Otomatis memainkan permainan secara otomatis untuk jumlah yang telah ditentukan.</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>을(를) 탭하여 기록에 표시할 게임의 날짜를 표시합니다.</t>
+          <t>자동 스핀은 선택된 수의 스핀 동안 자동으로 게임을 플레이합니다.</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>すると、履歴に表示するゲームの日付を指定できます。</t>
+          <t>オートスピンは、指定した回数のスピンでゲームを自動的に行います。</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>để chọn ngày hiển thị game trong Lịch Sử.</t>
+          <t>Chế độ Quay Tự Động cho phép tự động chơi trò chơi trong một số lượt chơi đã chọn.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>MORE_SETTINGS</t>
+          <t>RULE_AUTO_SPIN_2</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MORE SETTINGS</t>
+          <t>Tap on the values to select the number of Auto Spins.</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>更多设置</t>
+          <t>单击数值来选择自动旋转次数。</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>การตั้งค่าเพิ่มเติม</t>
+          <t>แตะที่ค่าเพื่อเลือกจำนวนการหมุนอัตโนมัติ</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>PENGATURAN LEBIH LANJUT</t>
+          <t>Ketuk pada nilai untuk memilih jumlah Putar Otomatis.</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>추가 설정</t>
+          <t>자동 스핀 수를 선택하려면 숫자를 탭하세요.</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>その他の設定</t>
+          <t>数字をタップすると、オートスピン回数を指定できます。</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>CÀI ĐẶT THÊM</t>
+          <t>Nhấn vào để lựa chọn số lượt Quay Tự Động.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>RULE_SETTINGS_1</t>
+          <t>TURBO_SPIN</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Tap to access additional settings.</t>
+          <t>TURBO SPIN</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>单击访问其他设置。</t>
+          <t>快速旋转</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>แตะเพื่อเข้าถึงการตั้งค่าเพิ่มเติม</t>
+          <t>หมุนไว</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Ketuk untuk mengakses pengaturan tambahan.</t>
+          <t>PUTARAN TURBO</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>추가 설정에 접속하려면 탭하세요.</t>
+          <t>터보 회전</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>タップすると、詳細設定にアクセスできます。</t>
+          <t>ターボスピン</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Nhấn để truy cập các cài đặt bổ sung.</t>
+          <t>QUAY TURBO</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>RULE_CLOSE</t>
+          <t>RULE_TURBO_SPIN_1</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>CLOSE</t>
+          <t>Tap to enable or disable the Turbo Spin, which will reduce the duration of reel spins in the main game.</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>关</t>
+          <t>单击开启或关闭极速旋转，该功能将缩短主游戏中卷轴旋转的持续时间。</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>ปิด</t>
+          <t>แตะเพื่อเปิดหรือปิดเทอร์โบสปินซึ่งช่วยลดระยะเวลาการหมุนของวงล้อในเกมหลัก</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>TUTUP</t>
+          <t>Ketuk untuk mengaktifkan atau menonaktifkan Putar Turbo, yang akan mengurangi durasi putaran kumparan pada permainan utama.</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>닫기</t>
+          <t>메인 게임의 릴 스핀 시간을 줄여 주는 터보 스핀을 활성화 또는 비활성화하려면 탭하세요.</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>閉じる</t>
+          <t>タップすると、メインゲームでのリールスピンの持続時間を短縮できる、ターボスピンの有効化、無効化ができます。</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>ĐÓNG</t>
+          <t>Nhấn để kích hoạt hoặc vô hiệu hóa chế độ Quay Tăng Cường. Chế độ Quay Tăng Cường cho phép giảm thời gian quay của một vòng quay trong màn chơi chính.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>RULE_CLOSE_1</t>
+          <t>RULE_SOUND</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Tap to return to the Main Game</t>
+          <t>SOUND</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>单击以返回主游戏。</t>
+          <t>声音</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>แตะเพื่อกลับไปยังเกมหลัก</t>
+          <t>เสียง</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Ketuk untuk kembali ke Permainan Utama</t>
+          <t>SUARA</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>메인 게임으로 돌아가려면 탭하세요</t>
+          <t>소리</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>タップすると、メインゲームに戻ります。</t>
+          <t>音</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Nhấn để quay lại trò chơi.</t>
+          <t>ÂM THANH</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>RETURN_TO_PLAYER</t>
+          <t>RULE_SOUND_1</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>RETURN TO PLAYER</t>
+          <t>Tap to turn sound ON or OFF.</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>玩家回报率</t>
+          <t>单击开启或关闭声音。</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>อัตราผลตอบแทนแก่ผู้เล่น</t>
+          <t>แตะเพื่อเปิดหรือปิดเสียง</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>IMBAL HASIL UNTUK PEMAIN</t>
+          <t>Ketuk untuk MENGAKTIFKAN atau MENONAKTIFKAN suara.</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>플레이어로 돌아가기</t>
+          <t>사운드를 켜거나 끄려면 탭하세요.</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>還元率</t>
+          <t>タップすると、サウンドのオン、オフが行えます。</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>HOÀN LẠI CHO NGƯỜI CHƠI</t>
+          <t>Nhấn để Bật hoặc Tắt âm thanh.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>RULE_RTP_1</t>
+          <t>RULE_PAYTABLE</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>The game's theoretical return to player (RTP) is 96.34%, representing the long-term payout.</t>
+          <t>PAYTABLE</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>理论上，这款游戏的长期玩家回报率为96.34%。</t>
+          <t>赔率表</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>อัตราการจ่ายเงินคืนแก่ผู้เล่นตามทฤษฎีของเกม (RTP) คือ 96.34% ซึ่งแสดงถึงการจ่ายเงินระยะยาว</t>
+          <t>ตารางการจ่ายเงิน</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Imbal Hasil Pemain (RTP) game ini adalah 96.34%, yang mewakili pembayaran jangka panjang.</t>
+          <t>Tabel Pembayaran</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>게임의 이론적인 플레이어 수익률(RTP)은 96.34%로, 장기 페이아웃을 나타냅니다.</t>
+          <t>배당표</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>このゲームの理論上のRTP（Return to Player）は96.34%で、長期的なペイ・アウトを表しています。</t>
+          <t>支払い表</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Tỷ lệ hoàn lại cho người chơi theo lý thuyết (RTP) trong game là 96.34%, thể hiện tiền trả thưởng dài hạn.</t>
+          <t>Bảng trả thưởng</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ADDITIONAL_INFORMATION</t>
+          <t>RULE_PAYTABLE_1</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ADDITIONAL INFORMATION</t>
+          <t>Shows winning combinations and paytable.</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>其他信息</t>
+          <t>显示获胜组合和赔率表。</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>ข้อมูลเพิ่มเติม</t>
+          <t>แสดงชุดค่าผสมที่ชนะและตารางการจ่ายเงิน</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>INFORMASI TAMBAHAN</t>
+          <t>Tampilkan kombinasi kemenangan dan tabel pembayaran.</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>추가 정보</t>
+          <t>당첨 조합과 지급 표를 표시합니다.</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>追加情報</t>
+          <t>ウィニング・コンビネーションとペイ・テーブルを確認できます。</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>THÔNG TIN BỔ SUNG</t>
+          <t>Hiển thị combo thắng cược và bảng thanh toán.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>RULE_ADDITIONAL_INFO_1</t>
+          <t>RULE_RULES</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>All pays and plays are void in the event of a malfunction.</t>
+          <t>RULES</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>如出现故障，所有的支付和游戏结果均为无效。</t>
+          <t>规则</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>การจ่ายเงินและการเล่นทั้งหมดจะถือเป็นโมฆะในกรณีที่มีความผิดปกติเกิดขึ้น</t>
+          <t>กฎ</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Semua pembayaran dan permainan dibatalkan jika terjadi gangguan.</t>
+          <t>Aturan</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>오작동이 발생한 경우 모든 지불 및 플레이는 무효가 됩니다.</t>
+          <t>규칙</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>何かシステムに不具合が起こった場合は、すべてのペイとプレイは無効となります。</t>
+          <t>ルール</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Tất cả các khoản thanh toán và kết quả game không được tính trong trường hợp có sự cố.</t>
+          <t>Quy Tắc</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RULE_ADDITIONAL_INFO_2</t>
+          <t>RULE_RULES_1</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>The English version of the Game Rules takes precedence.</t>
+          <t>Show the game rules and button functions.</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>游戏规则以英文版本为准。</t>
+          <t>显示游戏规则和按钮功能。</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>กฎของเกมเวอร์ชันภาษาอังกฤษมีความสำคัญเหนือกว่าเวอร์ชันอื่นใด</t>
+          <t>แสดงกฎและปุ่มเล่นเกม</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Versi bahasa Inggris dari aturan game ini lebih diutamakan daripada versi lainnya.</t>
+          <t>Menunjukkan peraturan permainan dan fungsi tombol.</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>게임 규칙의 영어 버전이 우선시됩니다.</t>
+          <t>게임 규칙과 버튼 기능을 표시합니다.</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>英語版のゲームのルールが優先されます。</t>
+          <t>ゲームのルールとボタンの機能を表示します。</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Phiên bản tiếng Anh của Luật Chơi được ưu tiên áp dụng.</t>
+          <t>Thể hiện luật chơi và chức năng của các nút.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>GAME_VERSION</t>
+          <t>RULE_HISTORY</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Game Version - {0}</t>
+          <t>HISTORY</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>游戏版本 - {0}</t>
+          <t>历史</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>เวอร์ชันเกม - {0}</t>
+          <t>ประวัติศาสตร์</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Versi Game - {0}</t>
+          <t>RIWAYAT</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>게임 버전 - {0}</t>
+          <t>역사</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>ゲームバージョン - {0}</t>
+          <t>履歴</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Phiên Bản Game - {0}</t>
+          <t>LỊCH SỬ</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>GAME_INFO</t>
+          <t>RULE_HISTORY_1</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Game Info</t>
+          <t>Shows details of the previous games played. Scroll down to the end to load more records.</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>游戏资讯</t>
+          <t>显示之前玩过的游戏详情。滑动至底部来加载更多纪录。</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ข้อมูลเกม</t>
+          <t>แสดงรายละเอียดของเกมที่เล่นก่อนหน้า เลื่อนลงสุดเพื่อโหลดบันทึกเพิ่มเติม</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>INFORMASI PERMAINAN</t>
+          <t>Menunjukkan detail permainan yang telah dimainkan sebelumnya. Gulir ke bawah sampai akhir untuk memuat lebih banyak catatan.</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>게임 정보</t>
+          <t>이전에 플레이한 게임의 세부 사항을 보여줍니다. 끝으로 스크롤하여 더 많은 기록을 로드하세요.</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>ゲーム内容</t>
+          <t>過去にプレイしたゲームの詳細を表示します。最後までスクロールすると、さらに多くの記録を読み込めます。</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Thông tin trò chơi</t>
+          <t>Thể hiện chi tiết về các lượt chơi trước. Kéo xuống dưới để tải thêm bản ghi.</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>RELOAD</t>
+          <t>RULE_HISTORY_2_1</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Reload</t>
+          <t>Tap</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>重新加载</t>
+          <t>点击</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>โหลดใหม่</t>
+          <t>แตะ</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Muat Ulang</t>
+          <t>KETUK</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>다시 불러오기</t>
+          <t>탭</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>リロード</t>
+          <t>タップ</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Tải lại</t>
+          <t>CHẠM</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>RULE_HISTORY_2_2</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>to select the dates of games to be shown in History.</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>花费</t>
+          <t>来选择历史记录中显示的游戏日期。</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>ราคา</t>
+          <t>เพื่อเลือกวันที่ของเกมที่ต้องการแสดงในประวัติ</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Biaya</t>
+          <t>untuk memilih tanggal permainan yang akan ditampilkan pada Riwayat.</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>을(를) 탭하여 기록에 표시할 게임의 날짜를 표시합니다.</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>コスト</t>
+          <t>すると、履歴に表示するゲームの日付を指定できます。</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Chi phí</t>
+          <t>để chọn ngày hiển thị game trong Lịch Sử.</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr"/>
-      <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>MORE_SETTINGS</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>MORE SETTINGS</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>更多设置</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>การตั้งค่าเพิ่มเติม</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>PENGATURAN LEBIH LANJUT</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>추가 설정</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>その他の設定</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>CÀI ĐẶT THÊM</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>free_spin_totalwin_01</t>
+          <t>RULE_SETTINGS_1</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Total Win</t>
+          <t>Tap to access additional settings.</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>奖金总额</t>
+          <t>单击访问其他设置。</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>ชัยชนะทั้งหมด</t>
+          <t>แตะเพื่อเข้าถึงการตั้งค่าเพิ่มเติม</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Total Kemenangan</t>
+          <t>Ketuk untuk mengakses pengaturan tambahan.</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>총 승리</t>
+          <t>추가 설정에 접속하려면 탭하세요.</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>賞金合計</t>
+          <t>タップすると、詳細設定にアクセスできます。</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Tổng Thắng</t>
+          <t>Nhấn để truy cập các cài đặt bổ sung.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>free_spin_collect</t>
+          <t>RULE_CLOSE</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Collect</t>
+          <t>CLOSE</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>收集</t>
+          <t>关</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>เก็บ</t>
+          <t>ปิด</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Kumpulkan</t>
+          <t>TUTUP</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>모으기</t>
+          <t>닫기</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>回収する</t>
+          <t>閉じる</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Thu Thập</t>
+          <t>ĐÓNG</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr"/>
-      <c r="B196" t="inlineStr"/>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>RULE_CLOSE_1</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Tap to return to the Main Game</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>单击以返回主游戏。</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>แตะเพื่อกลับไปยังเกมหลัก</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Ketuk untuk kembali ke Permainan Utama</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>메인 게임으로 돌아가려면 탭하세요</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>タップすると、メインゲームに戻ります。</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Nhấn để quay lại trò chơi.</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>jackpot_info_01</t>
+          <t>RETURN_TO_PLAYER</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Jackpot</t>
+          <t>RETURN TO PLAYER</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>头奖</t>
+          <t>玩家回报率</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>แจ็คพอต</t>
+          <t>อัตราผลตอบแทนแก่ผู้เล่น</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Jackpot</t>
+          <t>IMBAL HASIL UNTUK PEMAIN</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>공동 자금</t>
+          <t>플레이어로 돌아가기</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>ジャックポット</t>
+          <t>還元率</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Giải độc đắc</t>
+          <t>HOÀN LẠI CHO NGƯỜI CHƠI</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>jackpot_info_02</t>
+          <t>RULE_RTP_1</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Select any Token to open</t>
+          <t>The game's theoretical return to player (RTP) is 96.32%, representing the long-term payout.</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>收集金币来揭示头奖</t>
+          <t>理论上，这款游戏的长期玩家回报率为96.32%。</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>เลือกเหรียญเพื่อเปิดแจ็คพอต</t>
+          <t>อัตราการจ่ายเงินคืนแก่ผู้เล่นตามทฤษฎีของเกม (RTP) คือ 96.32% ซึ่งแสดงถึงการจ่ายเงินระยะยาว</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Pilih koin untuk mengungkap Jackpot</t>
+          <t>Imbal Hasil Pemain (RTP) game ini adalah 96.32%, yang mewakili pembayaran jangka panjang.</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>코인을 선택하면 잭팟이 나타납니다.</t>
+          <t>게임의 이론적인 플레이어 수익률(RTP)은 96.32%로, 장기 페이아웃을 나타냅니다.</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t xml:space="preserve">コインを選んでジャックポットを決定しよう </t>
+          <t>このゲームの理論上のRTP（Return to Player）は96.32%で、長期的なペイ・アウトを表しています。</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Chọn biểu tượng Đồng Tiền để tiết lộ giải Độc Đắc</t>
+          <t>Tỷ lệ hoàn lại cho người chơi theo lý thuyết (RTP) trong game là 96.32%, thể hiện tiền trả thưởng dài hạn.</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>jackpot_info_03</t>
+          <t>ADDITIONAL_INFORMATION</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Match 3 of the same symbols to collect your Jackpot!</t>
+          <t>ADDITIONAL INFORMATION</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>匹配3个相同符号，赢得头奖！</t>
+          <t>其他信息</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>จับคู่สัญลักษณ์เดียวกัน 3 ตัวเพื่อรับรางวัลแจ็คพอตของคุณ</t>
+          <t>ข้อมูลเพิ่มเติม</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Cocokkan 3 simbol yang sama untuk mengoleksi Jackpot kamu!</t>
+          <t>INFORMASI TAMBAHAN</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>동일한 심벌 중 3개를 매치시켜 잭팟을 획득하십시오!</t>
+          <t>추가 정보</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>同じシンボルを3ジャつそろえて、ックポットを回収しよう！</t>
+          <t>追加情報</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Kết hợp 3 biểu tượng giống nhau để thu thập giải Độc Đắc của bạn!</t>
+          <t>THÔNG TIN BỔ SUNG</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr"/>
-      <c r="B200" t="inlineStr"/>
-      <c r="C200" t="inlineStr"/>
-      <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr"/>
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>RULE_ADDITIONAL_INFO_1</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>All pays and plays are void in the event of a malfunction.</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>如出现故障，所有的支付和游戏结果均为无效。</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>การจ่ายเงินและการเล่นทั้งหมดจะถือเป็นโมฆะในกรณีที่มีความผิดปกติเกิดขึ้น</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Semua pembayaran dan permainan dibatalkan jika terjadi gangguan.</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>오작동이 발생한 경우 모든 지불 및 플레이는 무효가 됩니다.</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>何かシステムに不具合が起こった場合は、すべてのペイとプレイは無効となります。</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Tất cả các khoản thanh toán và kết quả game không được tính trong trường hợp có sự cố.</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>buyfeature_dialog_01</t>
+          <t>RULE_ADDITIONAL_INFO_2</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Buy Feature</t>
+          <t>The English version of the Game Rules takes precedence.</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>购买功能</t>
+          <t>游戏规则以英文版本为准。</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>ซื้อฟีเจอร์</t>
+          <t>กฎของเกมเวอร์ชันภาษาอังกฤษมีความสำคัญเหนือกว่าเวอร์ชันอื่นใด</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Beli Fitur</t>
+          <t>Versi bahasa Inggris dari aturan game ini lebih diutamakan daripada versi lainnya.</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>구매 기능</t>
+          <t>게임 규칙의 영어 버전이 우선시됩니다.</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>購入フィーチャー</t>
+          <t>英語版のゲームのルールが優先されます。</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Tính năng Mua</t>
+          <t>Phiên bản tiếng Anh của Luật Chơi được ưu tiên áp dụng.</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Buyfeature_popup_01</t>
+          <t>GAME_VERSION</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Buy 8 Free Spins for</t>
+          <t>Game Version - {0}</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>购买8次免费旋转于</t>
+          <t>游戏版本 - {0}</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t xml:space="preserve">ซื้อ 8 ฟรีสปินในราคา </t>
+          <t>เวอร์ชันเกม - {0}</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Beli 8 Putaran Gratis dengan harga</t>
+          <t>Versi Game - {0}</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>8번 무료 스핀 구매</t>
+          <t>게임 버전 - {0}</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>フリースピンを8回買うために</t>
+          <t>ゲームバージョン - {0}</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mua 8 Vòng quay Miễn phí với giá </t>
+          <t>Phiên Bản Game - {0}</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Buyfeature_popup_02</t>
+          <t>GAME_INFO</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Buy Jackpot for</t>
+          <t>Game Info</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>购买头奖</t>
+          <t>游戏资讯</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>ซื้อ Jackpot ในราคา</t>
+          <t>ข้อมูลเกม</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Beli Jackpot untuk</t>
+          <t>INFORMASI PERMAINAN</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>잭팟 구매</t>
+          <t>게임 정보</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>ジャックポットを購入する</t>
+          <t>ゲーム内容</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Mua Jackpot để</t>
+          <t>Thông tin trò chơi</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>special_win_03</t>
+          <t>RELOAD</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Big Win</t>
+          <t>Reload</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>大奖</t>
+          <t>重新加载</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>ชนะยิ่งใหญ่</t>
+          <t>โหลดใหม่</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Kemenangan Besar</t>
+          <t>Muat Ulang</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>큰 승리</t>
+          <t>다시 불러오기</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>ビッグウィン</t>
+          <t>リロード</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Thắng Lớn</t>
+          <t>Tải lại</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>special_win_02</t>
+          <t>COST</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Mega Win</t>
+          <t>COST</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>巨型大奖</t>
+          <t>花费</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>ชนะสุดยอด</t>
+          <t>ราคา</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Kemenangan Mega</t>
+          <t>Biaya</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>메가 승리</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>メガウィン</t>
+          <t>コスト</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Thắng Cực Lớn</t>
+          <t>Chi phí</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>special_win_01</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Super Mega Win</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>超级巨型大奖</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>ชนะสุดเยี่ยมยอด</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Kemenangan Super Mega</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>슈퍼 메가 승리</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>スーパー・メガウィン</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>Thắng Siêu Lớn</t>
-        </is>
-      </c>
+      <c r="A206" t="inlineStr"/>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr"/>
-      <c r="B207" t="inlineStr"/>
-      <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>free_spin_totalwin_01</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Total Win</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>奖金总额</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>ชัยชนะทั้งหมด</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Total Kemenangan</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>총 승리</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>賞金合計</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Tổng Thắng</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>info_bar_freespin_01</t>
+          <t>free_spin_collect</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Higher chance to win</t>
+          <t>Collect</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>更高的获胜机会</t>
+          <t>收集</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>โอกาสชนะสูง</t>
+          <t>เก็บ</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Peluang menang lebih tinggi</t>
+          <t>Kumpulkan</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>더 높은 승률</t>
+          <t>모으기</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>勝つ可能性が最も高い</t>
+          <t>回収する</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Cơ hội chiến thắng cao hơn</t>
+          <t>Thu Thập</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>info_bar_freespin_02</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Increase your rewards with double &lt;wild reel&gt;</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>两个&lt;wild reel&gt;可增加奖励</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>เพิ่มรางวัลด้วย &lt;wild reel&gt; คู่</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Tingkatkan hadiah Anda dengan dobel &lt;wild reel&gt;</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>더블 &lt;wild reel&gt;로 귀하의 보상을 늘리십시오</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>ダブル&lt;wild reel&gt;を使用すると、勝ち取る金額が増えます</t>
-        </is>
-      </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>Tăng phần thưởng nhờ hai cuộn &lt;wild reel&gt;</t>
-        </is>
-      </c>
+      <c r="A209" t="inlineStr"/>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr"/>
@@ -8808,252 +8616,220 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>info_bar_win_01</t>
+          <t>special_win_03</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Big Win</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>获胜</t>
+          <t>大奖</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>ชัยชนะ</t>
+          <t>ชนะยิ่งใหญ่</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Menang</t>
+          <t>Kemenangan Besar</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>승리</t>
+          <t>큰 승리</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>勝利</t>
+          <t>ビッグウィン</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Thắng</t>
+          <t>Thắng Lớn</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>info_bar_win_02</t>
+          <t>special_win_02</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Total Win</t>
+          <t>Mega Win</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>奖金总额</t>
+          <t>巨型大奖</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>ชัยชนะทั้งหมด</t>
+          <t>ชนะสุดยอด</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Total Kemenangan</t>
+          <t>Kemenangan Mega</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>총 승리</t>
+          <t>메가 승리</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>賞金合計</t>
+          <t>メガウィン</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Tổng Thắng</t>
+          <t>Thắng Cực Lớn</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>info_bar_rule_01</t>
+          <t>special_win_01</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>&lt;wild symbol&gt; can randomly trigger the Jackpot Game!</t>
+          <t>Super Mega Win</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>&lt;wild symbol&gt;会随机触发Jackpot游戏！</t>
+          <t>超级巨型大奖</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>&lt;wild symbol&gt; สามารถสุ่มเปิดใช้งานเกม Jackpot ได้!้</t>
+          <t>ชนะสุดเยี่ยมยอด</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>&lt;wild symbol&gt; dapat secara acak memicu Permainan Jackpot!</t>
+          <t>Kemenangan Super Mega</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>&lt;wild symbol&gt;은 Jackpot 게임을 랜덤으로 발동할 수 있습니다!</t>
+          <t>슈퍼 메가 승리</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>&lt;Wildシンボル&gt;はJackpotゲームをランダムに発生させます！</t>
+          <t>スーパー・メガウィン</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>&lt;wild symbol&gt; có thể ngẫu nhiên kích hoạt màn chơi Jackpot!</t>
+          <t>Thắng Siêu Lớn</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>info_bar_rule_02</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Win up to 1000x bet in Jackpot Feature!</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>在累积奖金功能中最多赢取1000x投注！</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>ชนะการเดิมพันสูงสุด 1000x ในฟีเจอร์แจ็คพอต!</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>Menangkan taruhan hingga 1.000x dalam Fitur Jackpot!</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>잭팟 기능에서 최대 1000x 베팅을 획득하십시오!</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>ジャックポット機能で賭け金の最大1000倍を勝ち取りましょう！</t>
-        </is>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>Thắng đến 1.000x số tiền cược với tính năng Độc Đắc!</t>
-        </is>
-      </c>
+      <c r="A214" t="inlineStr"/>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>info_bar_rule_03</t>
+          <t>info_bar_freespin_01</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>3 or more &lt;scatter&gt; awards 8 free spins with 2 wild reels on every spin</t>
+          <t>Win up to x30 multiplier!</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>3个或更多&lt;scatter&gt;可奖励8次免费旋转，每次旋转都带有2个Wild转轴</t>
+          <t>最高可赢得30倍的倍增指数！</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>&lt;scatter&gt; ตัวขึ้นไปจะให้รางวัล 8 ฟรีสปินพร้อม 2 วงล้อ Wild ทุกสปิน</t>
+          <t>ชนะตัวคูณได้มากถึง 30x!</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>3 atau lebih &lt;scatter&gt; menghadiahkan 8 putaran gratis dengan 2 reel liar di setiap putaran</t>
+          <t>Menangkan hingga x30 pengganda!</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>3개 이상의 &lt;scatter&gt;는 매 스핀마다 2개의 와일드 릴 및 8회의 무료 스핀을 수여합니다</t>
+          <t>최대 30배까지의 승수를 따내세요!</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>&lt;scatter&gt;が3つ以上の場合は、スピンごとに2つのワイルドリールを使用できる8回のフリースピンを獲得します</t>
+          <t>最大30倍のマルチプライヤーで勝利を狙いましょう！</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Quay trúng từ 3 &lt;scatter&gt; trở lên sẽ được thưởng 8 vòng quay miễn phí có 2 cuộn wild mỗi lượt quay</t>
+          <t>Thắng số nhân tới 30x!</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>info_bar_scatter</t>
+          <t>info_bar_freespin_02</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>One more &lt;Bonus symbol&gt;!</t>
+          <t>Symbols cascade down for more wins!</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>还需一个&lt;Bonus symbol&gt;！</t>
+          <t>符号倾泻而下，获得更多奖金！</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>สัญลักษณ์ &lt;Bonus symbol&gt; อีกหนึ่งสัญลักษณ์!</t>
+          <t>ทำให้สัญลักษณ์ตกเพื่อเงินรางวัลที่มากขึ้น!</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Satu lagi &lt;Bonus symbol&gt;!</t>
+          <t>Simbol-simbol jatuh ke bawah untuk lebih banyak kemenangan!</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>&lt;Bonus symbol&gt; 하나 추가!</t>
+          <t>심벌이 연속적으로 쏟아져 더 많은 승리를 거둘 수 있습니다!</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>もう一つの&lt;Bonus symbol&gt;です！</t>
+          <t>シンボルが連鎖して、さらに賞金が増えます！</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Một &lt;Bonus symbol&gt; nữa!</t>
+          <t>Các biểu tượng đổ xuống tạo cơ hội thắng liên tiếp!</t>
         </is>
       </c>
     </row>
@@ -9070,304 +8846,524 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>free_spin_info_01</t>
+          <t>info_bar_win_01</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Free Spins Won</t>
+          <t>Win</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>赢得的免费旋转</t>
+          <t>获胜</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>ฟรีสปินที่ชนะ</t>
+          <t>ชัยชนะ</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Putaran Gratis Dimenangkan</t>
+          <t>Menang</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>획득한 무료 스핀</t>
+          <t>승리</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>獲得フリースピン</t>
+          <t>勝利</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Vòng Quay Miễn Phí đã giành được</t>
+          <t>Thắng</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>free_spin_info_02</t>
+          <t>info_bar_win_02</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Remaining Free Spins</t>
+          <t>Total Win</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>剩余免费旋转</t>
+          <t>奖金总额</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>ฟรีสปินที่เหลืออยู่</t>
+          <t>ชัยชนะทั้งหมด</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Putaran Gratis Tersisa</t>
+          <t>Total Kemenangan</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>남은 무료 스핀</t>
+          <t>총 승리</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>残りフリースピン</t>
+          <t>賞金合計</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Vòng Quay Miễn Phí còn lại</t>
+          <t>Tổng Thắng</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>free_spin_info_03</t>
+          <t>info_bar_rule_01</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Last Free Spin</t>
+          <t>Win up to x30 multiplier in Free Spins!</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>最近一次免费旋转</t>
+          <t>在免费旋转中赢得至多30倍的倍增指数！</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>ฟรีสปินสุดท้าย</t>
+          <t>ชนะตัวคูณได้มากถึง 30x ในฟรีสปิน!</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Putaran Gratis Terakhir</t>
+          <t>Menangkan hingga x30 pengganda pada Putaran Gratis!</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>마지막 무료 스핀</t>
+          <t>무료 스핀에서 최대 30배까지의 승수를 따내세요!</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>前回のフリースピン</t>
+          <t>フリースピンでは最大30倍のマルチプライヤーで勝利を狙いましょう！</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Vòng Quay Miễn Phí cuối cùng</t>
+          <t>Thắng số nhân tới 30x trong Vòng Quay Miễn Phí!</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>free_spin_info_04</t>
+          <t>info_bar_rule_02</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>FREE SPINS RETRIGGERED</t>
+          <t>Get &lt;wild symbol&gt; with Gold Plated Symbols!</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>重新触发免费旋转</t>
+          <t>使用镀金符号来获取&lt;wild符号&gt;吧！</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>หมุนฟรีอีกครั้ง</t>
+          <t>รับ &lt;wild symbol&gt; ด้วยสัญลักษณ์ชุบทอง!</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Putaran bebas dipicu kembali</t>
+          <t>Dapatkan &lt;simbolwild &gt; dengan Simbol Berlapis Emas!</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>무료 스핀이 다시 트리거됨</t>
+          <t>도금 심벌로 &lt;wild 심벌&gt;을 따내세요!</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>フリースピンが再トリガーされました</t>
+          <t>金色のシンボルで &lt;wildシンボル&gt; を獲得しましょう！</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Vòng quay miễn phí được kích hoạt lại</t>
+          <t>Giành được &lt;wild symbol&gt; với Biểu Tượng Mạ Vàng!</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr"/>
-      <c r="B222" t="inlineStr"/>
-      <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>info_bar_rule_03</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Win up to 1125 ways!</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>最多有1125条线路赢奖！</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>ชนะได้สูงสุดถึง 1125 วิธี!</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Menangkan hingga 1125 jalur!</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>최대 1125가지 방법으로 승리하세요!</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>最大ペイラインは1125通りです！</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Chiến thắng tới 1125 đường cược!</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Jackpot_info_01</t>
+          <t>info_bar_rule_04</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Jackpot</t>
+          <t>Win up to x10 multiplier!</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>头奖</t>
+          <t>最高可赢得10倍的倍增指数！</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>แจ็คพอต</t>
+          <t>ชนะตัวคูณได้มากถึง 10x!</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Jackpot</t>
+          <t>Menangkan hingga x10 pengganda!</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>공동 자금</t>
+          <t>최대 10배까지의 승수를 따내세요!</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>ジャックポット</t>
+          <t>最大10倍のマルチプライヤーで勝利を狙いましょう！</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Giải độc đắc</t>
+          <t>Thắng số nhân tới 10x!</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Jackpot_info_02</t>
+          <t>info_bar_rule_05</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Select any suitcase to open</t>
+          <t>3 &lt;scatter symbol&gt; trigger 15 Free Spins</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>选择任意行李箱进行打开</t>
+          <t>3个&lt;scatter符号&gt;可触发15次免费旋转</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>เลือกกระเป๋าเดินทางที่จะเปิด</t>
+          <t>3 &lt;scatter symbol&gt; จะเปิดใช้งานฟรีสปิน 15 ครั้ง</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Pilih koper mana saja untuk dibuka</t>
+          <t>3 &lt;simbolscatter&gt; memicu 15 Putaran Gratis</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>열려는 가방을 선택하세요</t>
+          <t>3개의 &lt;scatter 심벌&gt;은 프리 스핀 15회를 발동시킵니다</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>開くスーツケースを選択してください</t>
+          <t>&lt;scatterシンボル&gt;3つでフリースピン15回を獲得</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Chọn bất kỳ vali nào để mở</t>
+          <t>3 &lt;scatter symbol&gt; kích hoạt 15 Vòng Quay Miễn Phí</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Jackpot_info_03</t>
+          <t>info_bar_scatter</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Match 3 of the same symbols to collect your Jackpot!</t>
+          <t>One more &lt;Bonus symbol&gt;!</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>匹配3个相同符号，赢得头奖！</t>
+          <t>还需一个&lt;Bonus symbol&gt;！</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>จับคู่สัญลักษณ์เดียวกัน 3 ตัวเพื่อรับรางวัลแจ็คพอตของคุณ</t>
+          <t>สัญลักษณ์ &lt;Bonus symbol&gt; อีกหนึ่งสัญลักษณ์!</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Cocokkan 3 simbol yang sama untuk mengoleksi Jackpot kamu!</t>
+          <t>Satu lagi &lt;Bonus symbol&gt;!</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>동일한 심벌 중 3개를 매치시켜 잭팟을 획득하십시오!</t>
+          <t>&lt;Bonus symbol&gt; 하나 추가!</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>同じシンボルを3ジャつそろえて、ックポットを回収しよう！</t>
+          <t>もう一つの&lt;Bonus symbol&gt;です！</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Kết hợp 3 biểu tượng giống nhau để thu thập giải Độc Đắc của bạn!</t>
+          <t>Một &lt;Bonus symbol&gt; nữa!</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr"/>
+      <c r="B226" t="inlineStr"/>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr"/>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>free_spin_info_01</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Free Spins Won</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>赢得的免费旋转</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>ฟรีสปินที่ชนะ</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Putaran Gratis Dimenangkan</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>획득한 무료 스핀</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>獲得フリースピン</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Vòng Quay Miễn Phí đã giành được</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>free_spin_info_02</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Remaining Free Spins</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>剩余免费旋转</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>ฟรีสปินที่เหลืออยู่</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Putaran Gratis Tersisa</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>남은 무료 스핀</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>残りフリースピン</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Vòng Quay Miễn Phí còn lại</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>free_spin_info_03</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Last Free Spin</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>最近一次免费旋转</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>ฟรีสปินสุดท้าย</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Putaran Gratis Terakhir</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>마지막 무료 스핀</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>前回のフリースピン</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Vòng Quay Miễn Phí cuối cùng</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>free_spin_info_04</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>FREE SPINS RETRIGGERED</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>重新触发免费旋转</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>หมุนฟรีอีกครั้ง</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Putaran bebas dipicu kembali</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>무료 스핀이 다시 트리거됨</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>フリースピンが再トリガーされました</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Vòng quay miễn phí được kích hoạt lại</t>
         </is>
       </c>
     </row>
